--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c107_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c107_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2858" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4978" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -332,10 +344,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -379,28 +391,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="A9" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="2">
+      <c r="C9" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="2">
+      <c r="F9" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="2">
+      <c r="G9" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="2">
+      <c r="H9" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -425,28 +437,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="2">
+      <c r="I11" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -621,10 +633,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="2" t="s">
+      <c r="J17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -668,28 +680,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="2">
+      <c r="A19" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="2">
+      <c r="C19" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -714,28 +726,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="2">
+      <c r="C21" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="2">
+      <c r="D21" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="2">
+      <c r="I21" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -823,10 +835,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="2" t="s">
+      <c r="J24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -870,28 +882,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="2">
+      <c r="A26" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s" s="2">
+      <c r="C26" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -916,28 +928,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="2">
+      <c r="C28" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="2">
+      <c r="D28" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="2">
+      <c r="I28" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -996,10 +1008,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1043,28 +1055,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="2">
+      <c r="A32" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="2">
+      <c r="C32" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1089,28 +1101,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="2">
+      <c r="C34" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="2">
+      <c r="D34" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="2">
+      <c r="I34" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1227,10 +1239,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="2" t="s">
+      <c r="J38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1274,28 +1286,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="2">
+      <c r="A40" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="2">
+      <c r="C40" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1320,28 +1332,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="2">
+      <c r="C42" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="2">
+      <c r="D42" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="2">
+      <c r="I42" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1429,10 +1441,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="2" t="s">
+      <c r="J45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1476,28 +1488,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="2">
+      <c r="A47" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s" s="2">
+      <c r="C47" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1522,28 +1534,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="C49" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="2">
+      <c r="D49" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="2">
+      <c r="I49" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1718,10 +1730,10 @@
       <c r="I55">
         <f>((C55-C54)^2+(D55- D54)^2)^.5</f>
       </c>
-      <c r="J55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K55" s="2" t="s">
+      <c r="J55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L55" t="n">
@@ -1765,28 +1777,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="2">
+      <c r="A57" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C57" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D57" t="s" s="2">
+      <c r="C57" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1811,28 +1823,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C59" t="s" s="2">
+      <c r="C59" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D59" t="s" s="2">
+      <c r="D59" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I59" t="s" s="2">
+      <c r="I59" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1978,10 +1990,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="2" t="s">
+      <c r="J64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2025,28 +2037,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="2">
+      <c r="C66" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2071,28 +2083,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2180,10 +2192,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="2" t="s">
+      <c r="J71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2227,28 +2239,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="2">
+      <c r="A73" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="2">
+      <c r="C73" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2273,28 +2285,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="2">
+      <c r="C75" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="2">
+      <c r="D75" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="2">
+      <c r="I75" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2411,10 +2423,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="2" t="s">
+      <c r="J79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2458,28 +2470,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2">
+      <c r="A81" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="2">
+      <c r="C81" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2504,28 +2516,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="2">
+      <c r="I83" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2584,10 +2596,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="2" t="s">
+      <c r="J85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2631,28 +2643,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="2">
+      <c r="A87" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="2">
+      <c r="C87" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2677,28 +2689,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="2">
+      <c r="I89" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2757,10 +2769,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="2" t="s">
+      <c r="J91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2804,28 +2816,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="2">
+      <c r="A93" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s" s="2">
+      <c r="C93" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2850,28 +2862,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="2">
+      <c r="I95" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3017,10 +3029,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K100" s="2" t="s">
+      <c r="J100" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3064,28 +3076,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="2">
+      <c r="A102" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s" s="2">
+      <c r="C102" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3110,28 +3122,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="2">
+      <c r="C104" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="2">
+      <c r="D104" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="2">
+      <c r="I104" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3190,10 +3202,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="2" t="s">
+      <c r="J106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3237,28 +3249,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="2">
+      <c r="C108" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3283,28 +3295,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="2">
+      <c r="I110" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3421,10 +3433,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="2" t="s">
+      <c r="J114" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3468,28 +3480,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="2">
+      <c r="A116" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s" s="2">
+      <c r="C116" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3514,28 +3526,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="2">
+      <c r="C118" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="2">
+      <c r="D118" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="2">
+      <c r="I118" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3623,10 +3635,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="2" t="s">
+      <c r="J121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3670,28 +3682,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="2">
+      <c r="A123" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="2">
+      <c r="C123" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3716,28 +3728,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="2">
+      <c r="I125" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3796,10 +3808,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="2" t="s">
+      <c r="J127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3843,28 +3855,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="2">
+      <c r="A129" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="2">
+      <c r="C129" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3889,28 +3901,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="2">
+      <c r="I131" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3969,10 +3981,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="2" t="s">
+      <c r="J133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4016,28 +4028,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="2">
+      <c r="C135" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4062,28 +4074,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4142,10 +4154,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K139" s="2" t="s">
+      <c r="J139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K139" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4189,28 +4201,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="2">
+      <c r="A141" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D141" t="s" s="2">
+      <c r="C141" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4235,28 +4247,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="2">
+      <c r="C143" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="2">
+      <c r="D143" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="2">
+      <c r="I143" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4315,10 +4327,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K145" s="2" t="s">
+      <c r="J145" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K145" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4362,28 +4374,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="2">
+      <c r="A147" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D147" t="s" s="2">
+      <c r="C147" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4408,28 +4420,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="C149" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="2">
+      <c r="D149" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="2">
+      <c r="I149" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4546,10 +4558,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K153" s="2" t="s">
+      <c r="J153" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K153" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4593,28 +4605,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="2">
+      <c r="A155" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D155" t="s" s="2">
+      <c r="C155" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4639,28 +4651,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="2">
+      <c r="C157" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="2">
+      <c r="D157" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="2">
+      <c r="I157" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4806,10 +4818,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4853,28 +4865,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4899,28 +4911,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4979,10 +4991,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="2" t="s">
+      <c r="J168" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5026,28 +5038,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="2">
+      <c r="A170" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="2">
+      <c r="C170" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5072,28 +5084,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="C172" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="2">
+      <c r="D172" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="2">
+      <c r="I172" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5152,10 +5164,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="2" t="s">
+      <c r="J174" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5199,28 +5211,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="2">
+      <c r="A176" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="2">
+      <c r="C176" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5245,28 +5257,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="2">
+      <c r="C178" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="2">
+      <c r="D178" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="2">
+      <c r="I178" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5325,10 +5337,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K180" s="2" t="s">
+      <c r="J180" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K180" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5372,28 +5384,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="2">
+      <c r="A182" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D182" t="s" s="2">
+      <c r="C182" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5418,28 +5430,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="2">
+      <c r="C184" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="2">
+      <c r="D184" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="2">
+      <c r="I184" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5614,10 +5626,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="2" t="s">
+      <c r="J190" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5661,28 +5673,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="2">
+      <c r="A192" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="2">
+      <c r="C192" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5707,28 +5719,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="2">
+      <c r="C194" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="2">
+      <c r="D194" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="2">
+      <c r="I194" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5816,10 +5828,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="2" t="s">
+      <c r="J197" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5863,28 +5875,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="2">
+      <c r="A199" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="2">
+      <c r="C199" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5909,28 +5921,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="2">
+      <c r="C201" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="2">
+      <c r="D201" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="2">
+      <c r="I201" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5989,10 +6001,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="2" t="s">
+      <c r="J203" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6036,28 +6048,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="2">
+      <c r="A205" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="2">
+      <c r="C205" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6082,28 +6094,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="2">
+      <c r="C207" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="2">
+      <c r="D207" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="2">
+      <c r="I207" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6220,10 +6232,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="2" t="s">
+      <c r="J211" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
@@ -6267,28 +6279,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s" s="2">
+      <c r="A213" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C213" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D213" t="s" s="2">
+      <c r="C213" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6313,28 +6325,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C215" t="s" s="2">
+      <c r="C215" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D215" t="s" s="2">
+      <c r="D215" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I215" t="s" s="2">
+      <c r="I215" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6393,10 +6405,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="2" t="s">
+      <c r="J217" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6440,28 +6452,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="2">
+      <c r="A219" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="2">
+      <c r="C219" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6486,28 +6498,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="2">
+      <c r="C221" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="2">
+      <c r="D221" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="2">
+      <c r="I221" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6566,10 +6578,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="2" t="s">
+      <c r="J223" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6613,28 +6625,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="2">
+      <c r="A225" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="2">
+      <c r="C225" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6659,28 +6671,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="2">
+      <c r="C227" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="2">
+      <c r="D227" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="2">
+      <c r="I227" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6739,10 +6751,10 @@
       <c r="I229">
         <f>((C229-C228)^2+(D229- D228)^2)^.5</f>
       </c>
-      <c r="J229" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K229" s="2" t="s">
+      <c r="J229" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L229" t="n">
@@ -6786,28 +6798,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="2">
+      <c r="A231" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B231" t="s" s="2">
+      <c r="B231" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C231" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D231" t="s" s="2">
+      <c r="C231" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E231" t="s" s="2">
+      <c r="E231" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F231" t="s" s="2">
+      <c r="F231" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G231" t="s" s="2">
+      <c r="G231" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H231" t="s" s="2">
+      <c r="H231" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6832,28 +6844,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C233" t="s" s="2">
+      <c r="C233" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D233" t="s" s="2">
+      <c r="D233" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I233" t="s" s="2">
+      <c r="I233" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6912,10 +6924,10 @@
       <c r="I235">
         <f>((C235-C234)^2+(D235- D234)^2)^.5</f>
       </c>
-      <c r="J235" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K235" s="2" t="s">
+      <c r="J235" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K235" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L235" t="n">
@@ -6959,28 +6971,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s" s="2">
+      <c r="A237" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B237" t="s" s="2">
+      <c r="B237" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C237" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D237" t="s" s="2">
+      <c r="C237" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E237" t="s" s="2">
+      <c r="E237" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F237" t="s" s="2">
+      <c r="F237" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G237" t="s" s="2">
+      <c r="G237" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H237" t="s" s="2">
+      <c r="H237" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7005,28 +7017,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="B239" t="s" s="2">
+      <c r="B239" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C239" t="s" s="2">
+      <c r="C239" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D239" t="s" s="2">
+      <c r="D239" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E239" t="s" s="2">
+      <c r="E239" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F239" t="s" s="2">
+      <c r="F239" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G239" t="s" s="2">
+      <c r="G239" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H239" t="s" s="2">
+      <c r="H239" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I239" t="s" s="2">
+      <c r="I239" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7085,10 +7097,10 @@
       <c r="I241">
         <f>((C241-C240)^2+(D241- D240)^2)^.5</f>
       </c>
-      <c r="J241" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K241" s="2" t="s">
+      <c r="J241" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K241" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L241" t="n">
@@ -7132,28 +7144,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="s" s="2">
+      <c r="A243" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B243" t="s" s="2">
+      <c r="B243" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C243" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D243" t="s" s="2">
+      <c r="C243" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D243" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E243" t="s" s="2">
+      <c r="E243" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F243" t="s" s="2">
+      <c r="F243" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G243" t="s" s="2">
+      <c r="G243" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H243" t="s" s="2">
+      <c r="H243" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7178,28 +7190,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="B245" t="s" s="2">
+      <c r="B245" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C245" t="s" s="2">
+      <c r="C245" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D245" t="s" s="2">
+      <c r="D245" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E245" t="s" s="2">
+      <c r="E245" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F245" t="s" s="2">
+      <c r="F245" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G245" t="s" s="2">
+      <c r="G245" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H245" t="s" s="2">
+      <c r="H245" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I245" t="s" s="2">
+      <c r="I245" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7258,10 +7270,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="2" t="s">
+      <c r="J247" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7305,28 +7317,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="2">
+      <c r="A249" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="2">
+      <c r="C249" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7351,28 +7363,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="2">
+      <c r="B251" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="2">
+      <c r="C251" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="2">
+      <c r="D251" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="2">
+      <c r="E251" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="2">
+      <c r="F251" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="2">
+      <c r="G251" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="2">
+      <c r="H251" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="2">
+      <c r="I251" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7431,10 +7443,10 @@
       <c r="I253">
         <f>((C253-C252)^2+(D253- D252)^2)^.5</f>
       </c>
-      <c r="J253" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K253" s="2" t="s">
+      <c r="J253" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K253" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L253" t="n">
@@ -7478,28 +7490,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="s" s="2">
+      <c r="A255" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B255" t="s" s="2">
+      <c r="B255" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C255" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D255" t="s" s="2">
+      <c r="C255" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E255" t="s" s="2">
+      <c r="E255" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F255" t="s" s="2">
+      <c r="F255" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G255" t="s" s="2">
+      <c r="G255" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H255" t="s" s="2">
+      <c r="H255" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7524,28 +7536,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C257" t="s" s="2">
+      <c r="C257" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D257" t="s" s="2">
+      <c r="D257" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I257" t="s" s="2">
+      <c r="I257" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7633,10 +7645,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="2" t="s">
+      <c r="J260" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7680,28 +7692,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="2">
+      <c r="A262" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="2">
+      <c r="C262" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7726,28 +7738,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="2">
+      <c r="C264" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="2">
+      <c r="D264" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="2">
+      <c r="I264" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7806,10 +7818,10 @@
       <c r="I266">
         <f>((C266-C265)^2+(D266- D265)^2)^.5</f>
       </c>
-      <c r="J266" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K266" s="2" t="s">
+      <c r="J266" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K266" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L266" t="n">
@@ -7853,28 +7865,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="s" s="2">
+      <c r="A268" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C268" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D268" t="s" s="2">
+      <c r="C268" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D268" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7899,28 +7911,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="B270" t="s" s="2">
+      <c r="B270" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C270" t="s" s="2">
+      <c r="C270" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D270" t="s" s="2">
+      <c r="D270" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E270" t="s" s="2">
+      <c r="E270" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F270" t="s" s="2">
+      <c r="F270" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G270" t="s" s="2">
+      <c r="G270" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H270" t="s" s="2">
+      <c r="H270" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I270" t="s" s="2">
+      <c r="I270" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7979,10 +7991,10 @@
       <c r="I272">
         <f>((C272-C271)^2+(D272- D271)^2)^.5</f>
       </c>
-      <c r="J272" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K272" s="2" t="s">
+      <c r="J272" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K272" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L272" t="n">
@@ -8026,28 +8038,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s" s="2">
+      <c r="A274" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B274" t="s" s="2">
+      <c r="B274" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C274" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D274" t="s" s="2">
+      <c r="C274" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E274" t="s" s="2">
+      <c r="E274" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F274" t="s" s="2">
+      <c r="F274" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G274" t="s" s="2">
+      <c r="G274" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H274" t="s" s="2">
+      <c r="H274" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8072,28 +8084,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="B276" t="s" s="2">
+      <c r="B276" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C276" t="s" s="2">
+      <c r="C276" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D276" t="s" s="2">
+      <c r="D276" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E276" t="s" s="2">
+      <c r="E276" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F276" t="s" s="2">
+      <c r="F276" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G276" t="s" s="2">
+      <c r="G276" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H276" t="s" s="2">
+      <c r="H276" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I276" t="s" s="2">
+      <c r="I276" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8152,10 +8164,10 @@
       <c r="I278">
         <f>((C278-C277)^2+(D278- D277)^2)^.5</f>
       </c>
-      <c r="J278" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K278" s="2" t="s">
+      <c r="J278" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K278" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L278" t="n">
@@ -8199,28 +8211,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="s" s="2">
+      <c r="A280" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B280" t="s" s="2">
+      <c r="B280" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C280" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D280" t="s" s="2">
+      <c r="C280" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D280" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E280" t="s" s="2">
+      <c r="E280" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F280" t="s" s="2">
+      <c r="F280" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G280" t="s" s="2">
+      <c r="G280" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H280" t="s" s="2">
+      <c r="H280" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8245,28 +8257,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="B282" t="s" s="2">
+      <c r="B282" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C282" t="s" s="2">
+      <c r="C282" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D282" t="s" s="2">
+      <c r="D282" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E282" t="s" s="2">
+      <c r="E282" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F282" t="s" s="2">
+      <c r="F282" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G282" t="s" s="2">
+      <c r="G282" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H282" t="s" s="2">
+      <c r="H282" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I282" t="s" s="2">
+      <c r="I282" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8325,10 +8337,10 @@
       <c r="I284">
         <f>((C284-C283)^2+(D284- D283)^2)^.5</f>
       </c>
-      <c r="J284" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K284" s="2" t="s">
+      <c r="J284" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K284" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L284" t="n">
@@ -8372,28 +8384,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s" s="2">
+      <c r="A286" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B286" t="s" s="2">
+      <c r="B286" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C286" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D286" t="s" s="2">
+      <c r="C286" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D286" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E286" t="s" s="2">
+      <c r="E286" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F286" t="s" s="2">
+      <c r="F286" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G286" t="s" s="2">
+      <c r="G286" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H286" t="s" s="2">
+      <c r="H286" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8418,28 +8430,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="B288" t="s" s="2">
+      <c r="B288" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C288" t="s" s="2">
+      <c r="C288" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D288" t="s" s="2">
+      <c r="D288" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E288" t="s" s="2">
+      <c r="E288" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F288" t="s" s="2">
+      <c r="F288" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G288" t="s" s="2">
+      <c r="G288" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H288" t="s" s="2">
+      <c r="H288" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I288" t="s" s="2">
+      <c r="I288" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8498,10 +8510,10 @@
       <c r="I290">
         <f>((C290-C289)^2+(D290- D289)^2)^.5</f>
       </c>
-      <c r="J290" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K290" s="2" t="s">
+      <c r="J290" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K290" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L290" t="n">
@@ -8545,28 +8557,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="s" s="2">
+      <c r="A292" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B292" t="s" s="2">
+      <c r="B292" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C292" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D292" t="s" s="2">
+      <c r="C292" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D292" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E292" t="s" s="2">
+      <c r="E292" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F292" t="s" s="2">
+      <c r="F292" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G292" t="s" s="2">
+      <c r="G292" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H292" t="s" s="2">
+      <c r="H292" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8591,28 +8603,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="B294" t="s" s="2">
+      <c r="B294" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C294" t="s" s="2">
+      <c r="C294" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D294" t="s" s="2">
+      <c r="D294" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E294" t="s" s="2">
+      <c r="E294" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F294" t="s" s="2">
+      <c r="F294" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G294" t="s" s="2">
+      <c r="G294" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H294" t="s" s="2">
+      <c r="H294" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I294" t="s" s="2">
+      <c r="I294" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8700,10 +8712,10 @@
       <c r="I297">
         <f>((C297-C296)^2+(D297- D296)^2)^.5</f>
       </c>
-      <c r="J297" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K297" s="2" t="s">
+      <c r="J297" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K297" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L297" t="n">
@@ -8747,28 +8759,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="s" s="2">
+      <c r="A299" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B299" t="s" s="2">
+      <c r="B299" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C299" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D299" t="s" s="2">
+      <c r="C299" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D299" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E299" t="s" s="2">
+      <c r="E299" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F299" t="s" s="2">
+      <c r="F299" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G299" t="s" s="2">
+      <c r="G299" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H299" t="s" s="2">
+      <c r="H299" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8793,28 +8805,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="B301" t="s" s="2">
+      <c r="B301" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C301" t="s" s="2">
+      <c r="C301" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D301" t="s" s="2">
+      <c r="D301" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E301" t="s" s="2">
+      <c r="E301" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F301" t="s" s="2">
+      <c r="F301" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G301" t="s" s="2">
+      <c r="G301" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H301" t="s" s="2">
+      <c r="H301" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I301" t="s" s="2">
+      <c r="I301" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8873,10 +8885,10 @@
       <c r="I303">
         <f>((C303-C302)^2+(D303- D302)^2)^.5</f>
       </c>
-      <c r="J303" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K303" s="2" t="s">
+      <c r="J303" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K303" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L303" t="n">
@@ -8920,28 +8932,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="s" s="2">
+      <c r="A305" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B305" t="s" s="2">
+      <c r="B305" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C305" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D305" t="s" s="2">
+      <c r="C305" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D305" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E305" t="s" s="2">
+      <c r="E305" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F305" t="s" s="2">
+      <c r="F305" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G305" t="s" s="2">
+      <c r="G305" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H305" t="s" s="2">
+      <c r="H305" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8966,28 +8978,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="B307" t="s" s="2">
+      <c r="B307" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C307" t="s" s="2">
+      <c r="C307" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D307" t="s" s="2">
+      <c r="D307" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E307" t="s" s="2">
+      <c r="E307" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F307" t="s" s="2">
+      <c r="F307" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G307" t="s" s="2">
+      <c r="G307" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H307" t="s" s="2">
+      <c r="H307" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I307" t="s" s="2">
+      <c r="I307" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9046,10 +9058,10 @@
       <c r="I309">
         <f>((C309-C308)^2+(D309- D308)^2)^.5</f>
       </c>
-      <c r="J309" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K309" s="2" t="s">
+      <c r="J309" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K309" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L309" t="n">
@@ -9093,28 +9105,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="s" s="2">
+      <c r="A311" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B311" t="s" s="2">
+      <c r="B311" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C311" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D311" t="s" s="2">
+      <c r="C311" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D311" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E311" t="s" s="2">
+      <c r="E311" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F311" t="s" s="2">
+      <c r="F311" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G311" t="s" s="2">
+      <c r="G311" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H311" t="s" s="2">
+      <c r="H311" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9139,28 +9151,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="B313" t="s" s="2">
+      <c r="B313" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C313" t="s" s="2">
+      <c r="C313" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D313" t="s" s="2">
+      <c r="D313" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E313" t="s" s="2">
+      <c r="E313" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F313" t="s" s="2">
+      <c r="F313" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G313" t="s" s="2">
+      <c r="G313" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H313" t="s" s="2">
+      <c r="H313" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I313" t="s" s="2">
+      <c r="I313" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9277,10 +9289,10 @@
       <c r="I317">
         <f>((C317-C316)^2+(D317- D316)^2)^.5</f>
       </c>
-      <c r="J317" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K317" s="2" t="s">
+      <c r="J317" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K317" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L317" t="n">
@@ -9324,28 +9336,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="s" s="2">
+      <c r="A319" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B319" t="s" s="2">
+      <c r="B319" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C319" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D319" t="s" s="2">
+      <c r="C319" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D319" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E319" t="s" s="2">
+      <c r="E319" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F319" t="s" s="2">
+      <c r="F319" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G319" t="s" s="2">
+      <c r="G319" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H319" t="s" s="2">
+      <c r="H319" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9370,28 +9382,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="B321" t="s" s="2">
+      <c r="B321" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C321" t="s" s="2">
+      <c r="C321" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D321" t="s" s="2">
+      <c r="D321" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E321" t="s" s="2">
+      <c r="E321" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F321" t="s" s="2">
+      <c r="F321" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G321" t="s" s="2">
+      <c r="G321" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H321" t="s" s="2">
+      <c r="H321" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I321" t="s" s="2">
+      <c r="I321" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9450,10 +9462,10 @@
       <c r="I323">
         <f>((C323-C322)^2+(D323- D322)^2)^.5</f>
       </c>
-      <c r="J323" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K323" s="2" t="s">
+      <c r="J323" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K323" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L323" t="n">
@@ -9497,28 +9509,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="s" s="2">
+      <c r="A325" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B325" t="s" s="2">
+      <c r="B325" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C325" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D325" t="s" s="2">
+      <c r="C325" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D325" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E325" t="s" s="2">
+      <c r="E325" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F325" t="s" s="2">
+      <c r="F325" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G325" t="s" s="2">
+      <c r="G325" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H325" t="s" s="2">
+      <c r="H325" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9543,28 +9555,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="B327" t="s" s="2">
+      <c r="B327" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C327" t="s" s="2">
+      <c r="C327" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D327" t="s" s="2">
+      <c r="D327" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E327" t="s" s="2">
+      <c r="E327" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F327" t="s" s="2">
+      <c r="F327" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G327" t="s" s="2">
+      <c r="G327" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H327" t="s" s="2">
+      <c r="H327" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I327" t="s" s="2">
+      <c r="I327" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9623,10 +9635,10 @@
       <c r="I329">
         <f>((C329-C328)^2+(D329- D328)^2)^.5</f>
       </c>
-      <c r="J329" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K329" s="2" t="s">
+      <c r="J329" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K329" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L329" t="n">
@@ -9670,28 +9682,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="s" s="2">
+      <c r="A331" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B331" t="s" s="2">
+      <c r="B331" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C331" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D331" t="s" s="2">
+      <c r="C331" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D331" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E331" t="s" s="2">
+      <c r="E331" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F331" t="s" s="2">
+      <c r="F331" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G331" t="s" s="2">
+      <c r="G331" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H331" t="s" s="2">
+      <c r="H331" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9716,28 +9728,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="B333" t="s" s="2">
+      <c r="B333" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C333" t="s" s="2">
+      <c r="C333" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D333" t="s" s="2">
+      <c r="D333" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E333" t="s" s="2">
+      <c r="E333" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F333" t="s" s="2">
+      <c r="F333" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G333" t="s" s="2">
+      <c r="G333" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H333" t="s" s="2">
+      <c r="H333" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I333" t="s" s="2">
+      <c r="I333" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9825,10 +9837,10 @@
       <c r="I336">
         <f>((C336-C335)^2+(D336- D335)^2)^.5</f>
       </c>
-      <c r="J336" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K336" s="2" t="s">
+      <c r="J336" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K336" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L336" t="n">
@@ -9872,28 +9884,28 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" t="s" s="2">
+      <c r="A338" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B338" t="s" s="2">
+      <c r="B338" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C338" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D338" t="s" s="2">
+      <c r="C338" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D338" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E338" t="s" s="2">
+      <c r="E338" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F338" t="s" s="2">
+      <c r="F338" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G338" t="s" s="2">
+      <c r="G338" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H338" t="s" s="2">
+      <c r="H338" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9918,28 +9930,28 @@
       </c>
     </row>
     <row r="340">
-      <c r="B340" t="s" s="2">
+      <c r="B340" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C340" t="s" s="2">
+      <c r="C340" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D340" t="s" s="2">
+      <c r="D340" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E340" t="s" s="2">
+      <c r="E340" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F340" t="s" s="2">
+      <c r="F340" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G340" t="s" s="2">
+      <c r="G340" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H340" t="s" s="2">
+      <c r="H340" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I340" t="s" s="2">
+      <c r="I340" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9998,10 +10010,10 @@
       <c r="I342">
         <f>((C342-C341)^2+(D342- D341)^2)^.5</f>
       </c>
-      <c r="J342" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K342" s="2" t="s">
+      <c r="J342" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K342" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L342" t="n">
@@ -10045,28 +10057,28 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="s" s="2">
+      <c r="A344" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B344" t="s" s="2">
+      <c r="B344" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C344" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D344" t="s" s="2">
+      <c r="C344" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D344" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E344" t="s" s="2">
+      <c r="E344" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F344" t="s" s="2">
+      <c r="F344" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G344" t="s" s="2">
+      <c r="G344" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H344" t="s" s="2">
+      <c r="H344" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10091,28 +10103,28 @@
       </c>
     </row>
     <row r="346">
-      <c r="B346" t="s" s="2">
+      <c r="B346" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C346" t="s" s="2">
+      <c r="C346" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D346" t="s" s="2">
+      <c r="D346" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E346" t="s" s="2">
+      <c r="E346" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F346" t="s" s="2">
+      <c r="F346" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G346" t="s" s="2">
+      <c r="G346" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H346" t="s" s="2">
+      <c r="H346" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I346" t="s" s="2">
+      <c r="I346" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10171,10 +10183,10 @@
       <c r="I348">
         <f>((C348-C347)^2+(D348- D347)^2)^.5</f>
       </c>
-      <c r="J348" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K348" s="2" t="s">
+      <c r="J348" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K348" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L348" t="n">
@@ -10218,28 +10230,28 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" t="s" s="2">
+      <c r="A350" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B350" t="s" s="2">
+      <c r="B350" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C350" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D350" t="s" s="2">
+      <c r="C350" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D350" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E350" t="s" s="2">
+      <c r="E350" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F350" t="s" s="2">
+      <c r="F350" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G350" t="s" s="2">
+      <c r="G350" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H350" t="s" s="2">
+      <c r="H350" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10264,28 +10276,28 @@
       </c>
     </row>
     <row r="352">
-      <c r="B352" t="s" s="2">
+      <c r="B352" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C352" t="s" s="2">
+      <c r="C352" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D352" t="s" s="2">
+      <c r="D352" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E352" t="s" s="2">
+      <c r="E352" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F352" t="s" s="2">
+      <c r="F352" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G352" t="s" s="2">
+      <c r="G352" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H352" t="s" s="2">
+      <c r="H352" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I352" t="s" s="2">
+      <c r="I352" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10344,10 +10356,10 @@
       <c r="I354">
         <f>((C354-C353)^2+(D354- D353)^2)^.5</f>
       </c>
-      <c r="J354" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K354" s="2" t="s">
+      <c r="J354" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K354" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L354" t="n">
@@ -10391,28 +10403,28 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" t="s" s="2">
+      <c r="A356" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B356" t="s" s="2">
+      <c r="B356" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C356" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D356" t="s" s="2">
+      <c r="C356" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D356" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E356" t="s" s="2">
+      <c r="E356" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F356" t="s" s="2">
+      <c r="F356" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G356" t="s" s="2">
+      <c r="G356" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H356" t="s" s="2">
+      <c r="H356" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10437,28 +10449,28 @@
       </c>
     </row>
     <row r="358">
-      <c r="B358" t="s" s="2">
+      <c r="B358" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C358" t="s" s="2">
+      <c r="C358" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D358" t="s" s="2">
+      <c r="D358" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E358" t="s" s="2">
+      <c r="E358" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F358" t="s" s="2">
+      <c r="F358" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G358" t="s" s="2">
+      <c r="G358" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H358" t="s" s="2">
+      <c r="H358" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I358" t="s" s="2">
+      <c r="I358" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10517,10 +10529,10 @@
       <c r="I360">
         <f>((C360-C359)^2+(D360- D359)^2)^.5</f>
       </c>
-      <c r="J360" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K360" s="2" t="s">
+      <c r="J360" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K360" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L360" t="n">
@@ -10564,28 +10576,28 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="s" s="2">
+      <c r="A362" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B362" t="s" s="2">
+      <c r="B362" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C362" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D362" t="s" s="2">
+      <c r="C362" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D362" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E362" t="s" s="2">
+      <c r="E362" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F362" t="s" s="2">
+      <c r="F362" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G362" t="s" s="2">
+      <c r="G362" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H362" t="s" s="2">
+      <c r="H362" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10610,28 +10622,28 @@
       </c>
     </row>
     <row r="364">
-      <c r="B364" t="s" s="2">
+      <c r="B364" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C364" t="s" s="2">
+      <c r="C364" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D364" t="s" s="2">
+      <c r="D364" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E364" t="s" s="2">
+      <c r="E364" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F364" t="s" s="2">
+      <c r="F364" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G364" t="s" s="2">
+      <c r="G364" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H364" t="s" s="2">
+      <c r="H364" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I364" t="s" s="2">
+      <c r="I364" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10690,10 +10702,10 @@
       <c r="I366">
         <f>((C366-C365)^2+(D366- D365)^2)^.5</f>
       </c>
-      <c r="J366" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K366" s="2" t="s">
+      <c r="J366" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K366" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L366" t="n">
@@ -10737,28 +10749,28 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="s" s="2">
+      <c r="A368" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B368" t="s" s="2">
+      <c r="B368" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C368" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D368" t="s" s="2">
+      <c r="C368" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D368" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E368" t="s" s="2">
+      <c r="E368" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F368" t="s" s="2">
+      <c r="F368" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G368" t="s" s="2">
+      <c r="G368" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H368" t="s" s="2">
+      <c r="H368" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10783,28 +10795,28 @@
       </c>
     </row>
     <row r="370">
-      <c r="B370" t="s" s="2">
+      <c r="B370" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C370" t="s" s="2">
+      <c r="C370" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D370" t="s" s="2">
+      <c r="D370" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E370" t="s" s="2">
+      <c r="E370" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F370" t="s" s="2">
+      <c r="F370" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G370" t="s" s="2">
+      <c r="G370" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H370" t="s" s="2">
+      <c r="H370" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I370" t="s" s="2">
+      <c r="I370" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10863,10 +10875,10 @@
       <c r="I372">
         <f>((C372-C371)^2+(D372- D371)^2)^.5</f>
       </c>
-      <c r="J372" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K372" s="2" t="s">
+      <c r="J372" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K372" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L372" t="n">
@@ -10910,28 +10922,28 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" t="s" s="2">
+      <c r="A374" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B374" t="s" s="2">
+      <c r="B374" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C374" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D374" t="s" s="2">
+      <c r="C374" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D374" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E374" t="s" s="2">
+      <c r="E374" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F374" t="s" s="2">
+      <c r="F374" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G374" t="s" s="2">
+      <c r="G374" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H374" t="s" s="2">
+      <c r="H374" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10956,28 +10968,28 @@
       </c>
     </row>
     <row r="376">
-      <c r="B376" t="s" s="2">
+      <c r="B376" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C376" t="s" s="2">
+      <c r="C376" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D376" t="s" s="2">
+      <c r="D376" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E376" t="s" s="2">
+      <c r="E376" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F376" t="s" s="2">
+      <c r="F376" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G376" t="s" s="2">
+      <c r="G376" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H376" t="s" s="2">
+      <c r="H376" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I376" t="s" s="2">
+      <c r="I376" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11036,10 +11048,10 @@
       <c r="I378">
         <f>((C378-C377)^2+(D378- D377)^2)^.5</f>
       </c>
-      <c r="J378" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K378" s="2" t="s">
+      <c r="J378" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K378" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L378" t="n">
@@ -11083,28 +11095,28 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" t="s" s="2">
+      <c r="A380" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B380" t="s" s="2">
+      <c r="B380" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C380" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D380" t="s" s="2">
+      <c r="C380" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D380" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E380" t="s" s="2">
+      <c r="E380" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F380" t="s" s="2">
+      <c r="F380" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G380" t="s" s="2">
+      <c r="G380" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H380" t="s" s="2">
+      <c r="H380" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11129,28 +11141,28 @@
       </c>
     </row>
     <row r="382">
-      <c r="B382" t="s" s="2">
+      <c r="B382" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C382" t="s" s="2">
+      <c r="C382" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D382" t="s" s="2">
+      <c r="D382" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E382" t="s" s="2">
+      <c r="E382" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F382" t="s" s="2">
+      <c r="F382" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G382" t="s" s="2">
+      <c r="G382" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H382" t="s" s="2">
+      <c r="H382" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I382" t="s" s="2">
+      <c r="I382" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11238,10 +11250,10 @@
       <c r="I385">
         <f>((C385-C384)^2+(D385- D384)^2)^.5</f>
       </c>
-      <c r="J385" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K385" s="2" t="s">
+      <c r="J385" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K385" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L385" t="n">
@@ -11285,28 +11297,28 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" t="s" s="2">
+      <c r="A387" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B387" t="s" s="2">
+      <c r="B387" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C387" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D387" t="s" s="2">
+      <c r="C387" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D387" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E387" t="s" s="2">
+      <c r="E387" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F387" t="s" s="2">
+      <c r="F387" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G387" t="s" s="2">
+      <c r="G387" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H387" t="s" s="2">
+      <c r="H387" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11331,28 +11343,28 @@
       </c>
     </row>
     <row r="389">
-      <c r="B389" t="s" s="2">
+      <c r="B389" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C389" t="s" s="2">
+      <c r="C389" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D389" t="s" s="2">
+      <c r="D389" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E389" t="s" s="2">
+      <c r="E389" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F389" t="s" s="2">
+      <c r="F389" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G389" t="s" s="2">
+      <c r="G389" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H389" t="s" s="2">
+      <c r="H389" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I389" t="s" s="2">
+      <c r="I389" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11411,10 +11423,10 @@
       <c r="I391">
         <f>((C391-C390)^2+(D391- D390)^2)^.5</f>
       </c>
-      <c r="J391" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K391" s="2" t="s">
+      <c r="J391" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K391" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L391" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c107_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c107_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4978" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13458" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="4">
+      <c r="C3" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -344,10 +392,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="4" t="s">
+      <c r="J7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -391,28 +439,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="4">
+      <c r="A9" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="4">
+      <c r="B9" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="4">
+      <c r="C9" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="4">
+      <c r="E9" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="4">
+      <c r="F9" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="4">
+      <c r="G9" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="4">
+      <c r="H9" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -437,28 +485,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="4">
+      <c r="B11" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="4">
+      <c r="C11" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="4">
+      <c r="D11" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="4">
+      <c r="E11" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="4">
+      <c r="F11" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="4">
+      <c r="G11" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="4">
+      <c r="H11" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="4">
+      <c r="I11" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -633,10 +681,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="4" t="s">
+      <c r="J17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -680,28 +728,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="4">
+      <c r="A19" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="4">
+      <c r="B19" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="4">
+      <c r="C19" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="4">
+      <c r="E19" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="4">
+      <c r="F19" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="4">
+      <c r="G19" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="4">
+      <c r="H19" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -726,28 +774,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="4">
+      <c r="B21" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="4">
+      <c r="C21" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="4">
+      <c r="D21" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="4">
+      <c r="E21" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="4">
+      <c r="F21" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="4">
+      <c r="G21" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="4">
+      <c r="H21" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="4">
+      <c r="I21" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -835,10 +883,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="4" t="s">
+      <c r="J24" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -882,28 +930,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="4">
+      <c r="A26" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="4">
+      <c r="B26" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s" s="4">
+      <c r="C26" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="4">
+      <c r="E26" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="4">
+      <c r="F26" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="4">
+      <c r="G26" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="4">
+      <c r="H26" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -928,28 +976,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="4">
+      <c r="B28" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="4">
+      <c r="C28" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="4">
+      <c r="D28" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="4">
+      <c r="E28" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="4">
+      <c r="F28" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="4">
+      <c r="G28" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="4">
+      <c r="H28" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="4">
+      <c r="I28" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1008,10 +1056,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="4" t="s">
+      <c r="J30" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1055,28 +1103,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="4">
+      <c r="A32" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="4">
+      <c r="B32" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="4">
+      <c r="C32" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="4">
+      <c r="E32" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="4">
+      <c r="F32" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="4">
+      <c r="G32" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="4">
+      <c r="H32" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1101,28 +1149,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="4">
+      <c r="B34" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="4">
+      <c r="C34" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="4">
+      <c r="D34" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="4">
+      <c r="E34" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="4">
+      <c r="F34" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="4">
+      <c r="G34" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="4">
+      <c r="H34" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="4">
+      <c r="I34" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1239,10 +1287,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="4" t="s">
+      <c r="J38" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1286,28 +1334,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="4">
+      <c r="A40" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="4">
+      <c r="B40" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="4">
+      <c r="C40" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="4">
+      <c r="E40" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="4">
+      <c r="F40" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="4">
+      <c r="G40" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="4">
+      <c r="H40" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1332,28 +1380,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="4">
+      <c r="B42" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="4">
+      <c r="C42" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="4">
+      <c r="D42" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="4">
+      <c r="E42" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="4">
+      <c r="F42" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="4">
+      <c r="G42" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="4">
+      <c r="H42" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="4">
+      <c r="I42" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1441,10 +1489,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="4" t="s">
+      <c r="J45" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1488,28 +1536,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="4">
+      <c r="A47" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="4">
+      <c r="B47" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s" s="4">
+      <c r="C47" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="4">
+      <c r="E47" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="4">
+      <c r="F47" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="4">
+      <c r="G47" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="4">
+      <c r="H47" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1534,28 +1582,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="4">
+      <c r="B49" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="4">
+      <c r="C49" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="4">
+      <c r="D49" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="4">
+      <c r="E49" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="4">
+      <c r="F49" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="4">
+      <c r="G49" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="4">
+      <c r="H49" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="4">
+      <c r="I49" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1730,10 +1778,10 @@
       <c r="I55">
         <f>((C55-C54)^2+(D55- D54)^2)^.5</f>
       </c>
-      <c r="J55" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K55" s="4" t="s">
+      <c r="J55" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L55" t="n">
@@ -1777,28 +1825,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="4">
+      <c r="A57" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B57" t="s" s="4">
+      <c r="B57" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C57" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D57" t="s" s="4">
+      <c r="C57" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E57" t="s" s="4">
+      <c r="E57" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F57" t="s" s="4">
+      <c r="F57" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G57" t="s" s="4">
+      <c r="G57" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H57" t="s" s="4">
+      <c r="H57" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1823,28 +1871,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="B59" t="s" s="4">
+      <c r="B59" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C59" t="s" s="4">
+      <c r="C59" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D59" t="s" s="4">
+      <c r="D59" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E59" t="s" s="4">
+      <c r="E59" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F59" t="s" s="4">
+      <c r="F59" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G59" t="s" s="4">
+      <c r="G59" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H59" t="s" s="4">
+      <c r="H59" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I59" t="s" s="4">
+      <c r="I59" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1990,10 +2038,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="4" t="s">
+      <c r="J64" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2037,28 +2085,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="4">
+      <c r="A66" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="4">
+      <c r="B66" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="4">
+      <c r="C66" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="4">
+      <c r="E66" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="4">
+      <c r="F66" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="4">
+      <c r="G66" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="4">
+      <c r="H66" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2083,28 +2131,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="4">
+      <c r="B68" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="4">
+      <c r="C68" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="4">
+      <c r="D68" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="4">
+      <c r="E68" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="4">
+      <c r="F68" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="4">
+      <c r="G68" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="4">
+      <c r="H68" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="4">
+      <c r="I68" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2192,10 +2240,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="4" t="s">
+      <c r="J71" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2239,28 +2287,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="4">
+      <c r="A73" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="4">
+      <c r="B73" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="4">
+      <c r="C73" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="4">
+      <c r="E73" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="4">
+      <c r="F73" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="4">
+      <c r="G73" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="4">
+      <c r="H73" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2285,28 +2333,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="4">
+      <c r="B75" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="4">
+      <c r="C75" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="4">
+      <c r="D75" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="4">
+      <c r="E75" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="4">
+      <c r="F75" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="4">
+      <c r="G75" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="4">
+      <c r="H75" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="4">
+      <c r="I75" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2423,10 +2471,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="4" t="s">
+      <c r="J79" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2470,28 +2518,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="4">
+      <c r="A81" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="4">
+      <c r="B81" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="4">
+      <c r="C81" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="4">
+      <c r="E81" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="4">
+      <c r="F81" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="4">
+      <c r="G81" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="4">
+      <c r="H81" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2516,28 +2564,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="4">
+      <c r="B83" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="4">
+      <c r="C83" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="4">
+      <c r="D83" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="4">
+      <c r="E83" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="4">
+      <c r="F83" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="4">
+      <c r="G83" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="4">
+      <c r="H83" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="4">
+      <c r="I83" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2596,10 +2644,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="4" t="s">
+      <c r="J85" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2643,28 +2691,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="4">
+      <c r="A87" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="4">
+      <c r="B87" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="4">
+      <c r="C87" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="4">
+      <c r="E87" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="4">
+      <c r="F87" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="4">
+      <c r="G87" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="4">
+      <c r="H87" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2689,28 +2737,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="4">
+      <c r="B89" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="4">
+      <c r="C89" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="4">
+      <c r="D89" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="4">
+      <c r="E89" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="4">
+      <c r="F89" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="4">
+      <c r="G89" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="4">
+      <c r="H89" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="4">
+      <c r="I89" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2769,10 +2817,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="4" t="s">
+      <c r="J91" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2816,28 +2864,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="4">
+      <c r="A93" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="4">
+      <c r="B93" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s" s="4">
+      <c r="C93" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="4">
+      <c r="E93" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="4">
+      <c r="F93" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="4">
+      <c r="G93" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="4">
+      <c r="H93" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2862,28 +2910,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="4">
+      <c r="B95" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="4">
+      <c r="C95" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="4">
+      <c r="D95" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="4">
+      <c r="E95" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="4">
+      <c r="F95" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="4">
+      <c r="G95" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="4">
+      <c r="H95" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="4">
+      <c r="I95" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3029,10 +3077,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K100" s="4" t="s">
+      <c r="J100" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3076,28 +3124,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="4">
+      <c r="A102" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="4">
+      <c r="B102" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s" s="4">
+      <c r="C102" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="4">
+      <c r="E102" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="4">
+      <c r="F102" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="4">
+      <c r="G102" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="4">
+      <c r="H102" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3122,28 +3170,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="4">
+      <c r="B104" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="4">
+      <c r="C104" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="4">
+      <c r="D104" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="4">
+      <c r="E104" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="4">
+      <c r="F104" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="4">
+      <c r="G104" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="4">
+      <c r="H104" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="4">
+      <c r="I104" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3202,10 +3250,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="4" t="s">
+      <c r="J106" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3249,28 +3297,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="4">
+      <c r="A108" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="4">
+      <c r="B108" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="4">
+      <c r="C108" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="4">
+      <c r="E108" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="4">
+      <c r="F108" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="4">
+      <c r="G108" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="4">
+      <c r="H108" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3295,28 +3343,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="4">
+      <c r="B110" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="4">
+      <c r="C110" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="4">
+      <c r="D110" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="4">
+      <c r="E110" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="4">
+      <c r="F110" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="4">
+      <c r="G110" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="4">
+      <c r="H110" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="4">
+      <c r="I110" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3433,10 +3481,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="4" t="s">
+      <c r="J114" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3480,28 +3528,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="4">
+      <c r="A116" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="4">
+      <c r="B116" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s" s="4">
+      <c r="C116" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="4">
+      <c r="E116" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="4">
+      <c r="F116" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="4">
+      <c r="G116" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="4">
+      <c r="H116" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3526,28 +3574,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="4">
+      <c r="B118" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="4">
+      <c r="C118" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="4">
+      <c r="D118" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="4">
+      <c r="E118" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="4">
+      <c r="F118" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="4">
+      <c r="G118" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="4">
+      <c r="H118" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="4">
+      <c r="I118" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3635,10 +3683,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="4" t="s">
+      <c r="J121" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3682,28 +3730,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="4">
+      <c r="A123" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="4">
+      <c r="B123" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="4">
+      <c r="C123" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="4">
+      <c r="E123" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="4">
+      <c r="F123" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="4">
+      <c r="G123" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="4">
+      <c r="H123" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3728,28 +3776,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="4">
+      <c r="B125" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="4">
+      <c r="C125" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="4">
+      <c r="D125" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="4">
+      <c r="E125" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="4">
+      <c r="F125" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="4">
+      <c r="G125" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="4">
+      <c r="H125" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="4">
+      <c r="I125" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3808,10 +3856,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="4" t="s">
+      <c r="J127" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3855,28 +3903,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="4">
+      <c r="A129" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="4">
+      <c r="B129" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="4">
+      <c r="C129" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="4">
+      <c r="E129" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="4">
+      <c r="F129" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="4">
+      <c r="G129" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="4">
+      <c r="H129" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3901,28 +3949,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="4">
+      <c r="B131" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="4">
+      <c r="C131" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="4">
+      <c r="D131" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="4">
+      <c r="E131" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="4">
+      <c r="F131" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="4">
+      <c r="G131" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="4">
+      <c r="H131" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="4">
+      <c r="I131" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3981,10 +4029,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="4" t="s">
+      <c r="J133" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4028,28 +4076,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="4">
+      <c r="A135" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="4">
+      <c r="B135" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="4">
+      <c r="C135" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="4">
+      <c r="E135" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="4">
+      <c r="F135" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="4">
+      <c r="G135" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="4">
+      <c r="H135" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4074,28 +4122,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="4">
+      <c r="B137" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="4">
+      <c r="C137" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="4">
+      <c r="D137" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="4">
+      <c r="E137" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="4">
+      <c r="F137" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="4">
+      <c r="G137" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="4">
+      <c r="H137" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="4">
+      <c r="I137" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4154,10 +4202,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K139" s="4" t="s">
+      <c r="J139" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K139" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4201,28 +4249,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="4">
+      <c r="A141" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="4">
+      <c r="B141" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D141" t="s" s="4">
+      <c r="C141" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="4">
+      <c r="E141" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="4">
+      <c r="F141" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="4">
+      <c r="G141" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="4">
+      <c r="H141" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4247,28 +4295,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="4">
+      <c r="B143" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="4">
+      <c r="C143" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="4">
+      <c r="D143" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="4">
+      <c r="E143" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="4">
+      <c r="F143" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="4">
+      <c r="G143" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="4">
+      <c r="H143" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="4">
+      <c r="I143" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4327,10 +4375,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K145" s="4" t="s">
+      <c r="J145" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K145" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4374,28 +4422,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="4">
+      <c r="A147" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="4">
+      <c r="B147" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D147" t="s" s="4">
+      <c r="C147" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="4">
+      <c r="E147" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="4">
+      <c r="F147" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="4">
+      <c r="G147" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="4">
+      <c r="H147" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4420,28 +4468,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="4">
+      <c r="B149" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="4">
+      <c r="C149" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="4">
+      <c r="D149" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="4">
+      <c r="E149" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="4">
+      <c r="F149" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="4">
+      <c r="G149" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="4">
+      <c r="H149" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="4">
+      <c r="I149" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4558,10 +4606,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K153" s="4" t="s">
+      <c r="J153" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K153" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4605,28 +4653,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="4">
+      <c r="A155" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="4">
+      <c r="B155" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D155" t="s" s="4">
+      <c r="C155" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="4">
+      <c r="E155" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="4">
+      <c r="F155" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="4">
+      <c r="G155" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="4">
+      <c r="H155" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4651,28 +4699,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="4">
+      <c r="B157" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="4">
+      <c r="C157" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="4">
+      <c r="D157" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="4">
+      <c r="E157" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="4">
+      <c r="F157" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="4">
+      <c r="G157" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="4">
+      <c r="H157" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="4">
+      <c r="I157" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4818,10 +4866,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="4" t="s">
+      <c r="J162" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4865,28 +4913,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="4">
+      <c r="A164" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="4">
+      <c r="B164" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="4">
+      <c r="C164" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="4">
+      <c r="E164" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="4">
+      <c r="F164" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="4">
+      <c r="G164" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="4">
+      <c r="H164" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4911,28 +4959,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="4">
+      <c r="B166" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="4">
+      <c r="C166" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="4">
+      <c r="D166" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="4">
+      <c r="E166" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="4">
+      <c r="F166" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="4">
+      <c r="G166" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="4">
+      <c r="H166" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="4">
+      <c r="I166" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4991,10 +5039,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="4" t="s">
+      <c r="J168" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5038,28 +5086,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="4">
+      <c r="A170" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="4">
+      <c r="B170" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="4">
+      <c r="C170" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="4">
+      <c r="E170" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="4">
+      <c r="F170" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="4">
+      <c r="G170" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="4">
+      <c r="H170" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5084,28 +5132,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="4">
+      <c r="B172" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="4">
+      <c r="C172" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="4">
+      <c r="D172" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="4">
+      <c r="E172" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="4">
+      <c r="F172" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="4">
+      <c r="G172" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="4">
+      <c r="H172" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="4">
+      <c r="I172" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5164,10 +5212,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="4" t="s">
+      <c r="J174" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5211,28 +5259,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="4">
+      <c r="A176" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="4">
+      <c r="B176" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="4">
+      <c r="C176" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="4">
+      <c r="E176" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="4">
+      <c r="F176" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="4">
+      <c r="G176" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="4">
+      <c r="H176" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5257,28 +5305,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="4">
+      <c r="B178" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="4">
+      <c r="C178" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="4">
+      <c r="D178" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="4">
+      <c r="E178" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="4">
+      <c r="F178" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="4">
+      <c r="G178" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="4">
+      <c r="H178" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="4">
+      <c r="I178" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5337,10 +5385,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K180" s="4" t="s">
+      <c r="J180" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K180" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5384,28 +5432,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="4">
+      <c r="A182" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="4">
+      <c r="B182" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D182" t="s" s="4">
+      <c r="C182" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="4">
+      <c r="E182" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="4">
+      <c r="F182" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="4">
+      <c r="G182" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="4">
+      <c r="H182" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5430,28 +5478,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="4">
+      <c r="B184" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="4">
+      <c r="C184" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="4">
+      <c r="D184" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="4">
+      <c r="E184" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="4">
+      <c r="F184" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="4">
+      <c r="G184" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="4">
+      <c r="H184" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="4">
+      <c r="I184" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5626,10 +5674,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="4" t="s">
+      <c r="J190" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5673,28 +5721,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="4">
+      <c r="A192" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="4">
+      <c r="B192" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="4">
+      <c r="C192" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="4">
+      <c r="E192" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="4">
+      <c r="F192" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="4">
+      <c r="G192" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="4">
+      <c r="H192" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5719,28 +5767,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="4">
+      <c r="B194" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="4">
+      <c r="C194" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="4">
+      <c r="D194" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="4">
+      <c r="E194" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="4">
+      <c r="F194" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="4">
+      <c r="G194" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="4">
+      <c r="H194" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="4">
+      <c r="I194" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5828,10 +5876,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="4" t="s">
+      <c r="J197" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5875,28 +5923,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="4">
+      <c r="A199" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="4">
+      <c r="B199" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="4">
+      <c r="C199" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="4">
+      <c r="E199" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="4">
+      <c r="F199" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="4">
+      <c r="G199" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="4">
+      <c r="H199" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5921,28 +5969,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="4">
+      <c r="B201" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="4">
+      <c r="C201" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="4">
+      <c r="D201" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="4">
+      <c r="E201" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="4">
+      <c r="F201" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="4">
+      <c r="G201" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="4">
+      <c r="H201" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="4">
+      <c r="I201" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6001,10 +6049,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="4" t="s">
+      <c r="J203" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6048,28 +6096,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="4">
+      <c r="A205" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="4">
+      <c r="B205" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="4">
+      <c r="C205" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="4">
+      <c r="E205" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="4">
+      <c r="F205" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="4">
+      <c r="G205" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="4">
+      <c r="H205" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6094,28 +6142,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="4">
+      <c r="B207" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="4">
+      <c r="C207" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="4">
+      <c r="D207" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="4">
+      <c r="E207" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="4">
+      <c r="F207" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="4">
+      <c r="G207" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="4">
+      <c r="H207" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="4">
+      <c r="I207" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6232,10 +6280,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="4" t="s">
+      <c r="J211" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
@@ -6279,28 +6327,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s" s="4">
+      <c r="A213" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B213" t="s" s="4">
+      <c r="B213" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C213" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D213" t="s" s="4">
+      <c r="C213" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E213" t="s" s="4">
+      <c r="E213" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F213" t="s" s="4">
+      <c r="F213" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G213" t="s" s="4">
+      <c r="G213" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H213" t="s" s="4">
+      <c r="H213" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6325,28 +6373,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="B215" t="s" s="4">
+      <c r="B215" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C215" t="s" s="4">
+      <c r="C215" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D215" t="s" s="4">
+      <c r="D215" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E215" t="s" s="4">
+      <c r="E215" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F215" t="s" s="4">
+      <c r="F215" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G215" t="s" s="4">
+      <c r="G215" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H215" t="s" s="4">
+      <c r="H215" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I215" t="s" s="4">
+      <c r="I215" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6405,10 +6453,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="4" t="s">
+      <c r="J217" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6452,28 +6500,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="4">
+      <c r="A219" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="4">
+      <c r="B219" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="4">
+      <c r="C219" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="4">
+      <c r="E219" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="4">
+      <c r="F219" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="4">
+      <c r="G219" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="4">
+      <c r="H219" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6498,28 +6546,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="4">
+      <c r="B221" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="4">
+      <c r="C221" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="4">
+      <c r="D221" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="4">
+      <c r="E221" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="4">
+      <c r="F221" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="4">
+      <c r="G221" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="4">
+      <c r="H221" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="4">
+      <c r="I221" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6578,10 +6626,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="4" t="s">
+      <c r="J223" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6625,28 +6673,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="4">
+      <c r="A225" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="4">
+      <c r="B225" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="4">
+      <c r="C225" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="4">
+      <c r="E225" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="4">
+      <c r="F225" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="4">
+      <c r="G225" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="4">
+      <c r="H225" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6671,28 +6719,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="4">
+      <c r="B227" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="4">
+      <c r="C227" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="4">
+      <c r="D227" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="4">
+      <c r="E227" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="4">
+      <c r="F227" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="4">
+      <c r="G227" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="4">
+      <c r="H227" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="4">
+      <c r="I227" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6751,10 +6799,10 @@
       <c r="I229">
         <f>((C229-C228)^2+(D229- D228)^2)^.5</f>
       </c>
-      <c r="J229" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K229" s="4" t="s">
+      <c r="J229" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L229" t="n">
@@ -6798,28 +6846,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="4">
+      <c r="A231" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B231" t="s" s="4">
+      <c r="B231" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C231" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D231" t="s" s="4">
+      <c r="C231" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E231" t="s" s="4">
+      <c r="E231" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F231" t="s" s="4">
+      <c r="F231" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G231" t="s" s="4">
+      <c r="G231" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H231" t="s" s="4">
+      <c r="H231" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6844,28 +6892,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="B233" t="s" s="4">
+      <c r="B233" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C233" t="s" s="4">
+      <c r="C233" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D233" t="s" s="4">
+      <c r="D233" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E233" t="s" s="4">
+      <c r="E233" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F233" t="s" s="4">
+      <c r="F233" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G233" t="s" s="4">
+      <c r="G233" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H233" t="s" s="4">
+      <c r="H233" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I233" t="s" s="4">
+      <c r="I233" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6924,10 +6972,10 @@
       <c r="I235">
         <f>((C235-C234)^2+(D235- D234)^2)^.5</f>
       </c>
-      <c r="J235" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K235" s="4" t="s">
+      <c r="J235" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K235" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L235" t="n">
@@ -6971,28 +7019,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s" s="4">
+      <c r="A237" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B237" t="s" s="4">
+      <c r="B237" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C237" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D237" t="s" s="4">
+      <c r="C237" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E237" t="s" s="4">
+      <c r="E237" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F237" t="s" s="4">
+      <c r="F237" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G237" t="s" s="4">
+      <c r="G237" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H237" t="s" s="4">
+      <c r="H237" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7017,28 +7065,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="B239" t="s" s="4">
+      <c r="B239" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C239" t="s" s="4">
+      <c r="C239" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D239" t="s" s="4">
+      <c r="D239" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E239" t="s" s="4">
+      <c r="E239" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F239" t="s" s="4">
+      <c r="F239" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G239" t="s" s="4">
+      <c r="G239" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H239" t="s" s="4">
+      <c r="H239" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I239" t="s" s="4">
+      <c r="I239" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7097,10 +7145,10 @@
       <c r="I241">
         <f>((C241-C240)^2+(D241- D240)^2)^.5</f>
       </c>
-      <c r="J241" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K241" s="4" t="s">
+      <c r="J241" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K241" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L241" t="n">
@@ -7144,28 +7192,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="s" s="4">
+      <c r="A243" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B243" t="s" s="4">
+      <c r="B243" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C243" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D243" t="s" s="4">
+      <c r="C243" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D243" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E243" t="s" s="4">
+      <c r="E243" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F243" t="s" s="4">
+      <c r="F243" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G243" t="s" s="4">
+      <c r="G243" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H243" t="s" s="4">
+      <c r="H243" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7190,28 +7238,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="B245" t="s" s="4">
+      <c r="B245" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C245" t="s" s="4">
+      <c r="C245" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D245" t="s" s="4">
+      <c r="D245" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E245" t="s" s="4">
+      <c r="E245" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F245" t="s" s="4">
+      <c r="F245" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G245" t="s" s="4">
+      <c r="G245" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H245" t="s" s="4">
+      <c r="H245" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I245" t="s" s="4">
+      <c r="I245" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7270,10 +7318,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="4" t="s">
+      <c r="J247" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7317,28 +7365,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="4">
+      <c r="A249" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="4">
+      <c r="B249" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="4">
+      <c r="C249" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="4">
+      <c r="E249" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="4">
+      <c r="F249" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="4">
+      <c r="G249" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="4">
+      <c r="H249" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7363,28 +7411,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="4">
+      <c r="B251" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="4">
+      <c r="C251" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="4">
+      <c r="D251" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="4">
+      <c r="E251" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="4">
+      <c r="F251" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="4">
+      <c r="G251" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="4">
+      <c r="H251" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="4">
+      <c r="I251" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7443,10 +7491,10 @@
       <c r="I253">
         <f>((C253-C252)^2+(D253- D252)^2)^.5</f>
       </c>
-      <c r="J253" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K253" s="4" t="s">
+      <c r="J253" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K253" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L253" t="n">
@@ -7490,28 +7538,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="s" s="4">
+      <c r="A255" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B255" t="s" s="4">
+      <c r="B255" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C255" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D255" t="s" s="4">
+      <c r="C255" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E255" t="s" s="4">
+      <c r="E255" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F255" t="s" s="4">
+      <c r="F255" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G255" t="s" s="4">
+      <c r="G255" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H255" t="s" s="4">
+      <c r="H255" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7536,28 +7584,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="B257" t="s" s="4">
+      <c r="B257" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C257" t="s" s="4">
+      <c r="C257" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D257" t="s" s="4">
+      <c r="D257" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E257" t="s" s="4">
+      <c r="E257" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F257" t="s" s="4">
+      <c r="F257" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G257" t="s" s="4">
+      <c r="G257" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H257" t="s" s="4">
+      <c r="H257" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I257" t="s" s="4">
+      <c r="I257" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7645,10 +7693,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="4" t="s">
+      <c r="J260" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7692,28 +7740,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="4">
+      <c r="A262" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="4">
+      <c r="B262" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="4">
+      <c r="C262" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="4">
+      <c r="E262" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="4">
+      <c r="F262" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="4">
+      <c r="G262" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="4">
+      <c r="H262" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7738,28 +7786,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="4">
+      <c r="B264" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="4">
+      <c r="C264" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="4">
+      <c r="D264" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="4">
+      <c r="E264" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="4">
+      <c r="F264" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="4">
+      <c r="G264" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="4">
+      <c r="H264" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="4">
+      <c r="I264" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7818,10 +7866,10 @@
       <c r="I266">
         <f>((C266-C265)^2+(D266- D265)^2)^.5</f>
       </c>
-      <c r="J266" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K266" s="4" t="s">
+      <c r="J266" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K266" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L266" t="n">
@@ -7865,28 +7913,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="s" s="4">
+      <c r="A268" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B268" t="s" s="4">
+      <c r="B268" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C268" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D268" t="s" s="4">
+      <c r="C268" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D268" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E268" t="s" s="4">
+      <c r="E268" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F268" t="s" s="4">
+      <c r="F268" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G268" t="s" s="4">
+      <c r="G268" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H268" t="s" s="4">
+      <c r="H268" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7911,28 +7959,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="B270" t="s" s="4">
+      <c r="B270" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C270" t="s" s="4">
+      <c r="C270" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D270" t="s" s="4">
+      <c r="D270" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E270" t="s" s="4">
+      <c r="E270" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F270" t="s" s="4">
+      <c r="F270" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G270" t="s" s="4">
+      <c r="G270" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H270" t="s" s="4">
+      <c r="H270" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I270" t="s" s="4">
+      <c r="I270" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7991,10 +8039,10 @@
       <c r="I272">
         <f>((C272-C271)^2+(D272- D271)^2)^.5</f>
       </c>
-      <c r="J272" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K272" s="4" t="s">
+      <c r="J272" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K272" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L272" t="n">
@@ -8038,28 +8086,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s" s="4">
+      <c r="A274" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B274" t="s" s="4">
+      <c r="B274" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C274" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D274" t="s" s="4">
+      <c r="C274" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E274" t="s" s="4">
+      <c r="E274" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F274" t="s" s="4">
+      <c r="F274" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G274" t="s" s="4">
+      <c r="G274" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H274" t="s" s="4">
+      <c r="H274" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8084,28 +8132,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="B276" t="s" s="4">
+      <c r="B276" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C276" t="s" s="4">
+      <c r="C276" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D276" t="s" s="4">
+      <c r="D276" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E276" t="s" s="4">
+      <c r="E276" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F276" t="s" s="4">
+      <c r="F276" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G276" t="s" s="4">
+      <c r="G276" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H276" t="s" s="4">
+      <c r="H276" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I276" t="s" s="4">
+      <c r="I276" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8164,10 +8212,10 @@
       <c r="I278">
         <f>((C278-C277)^2+(D278- D277)^2)^.5</f>
       </c>
-      <c r="J278" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K278" s="4" t="s">
+      <c r="J278" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K278" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L278" t="n">
@@ -8211,28 +8259,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="s" s="4">
+      <c r="A280" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B280" t="s" s="4">
+      <c r="B280" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C280" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D280" t="s" s="4">
+      <c r="C280" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D280" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E280" t="s" s="4">
+      <c r="E280" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F280" t="s" s="4">
+      <c r="F280" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G280" t="s" s="4">
+      <c r="G280" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H280" t="s" s="4">
+      <c r="H280" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8257,28 +8305,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="B282" t="s" s="4">
+      <c r="B282" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C282" t="s" s="4">
+      <c r="C282" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D282" t="s" s="4">
+      <c r="D282" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E282" t="s" s="4">
+      <c r="E282" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F282" t="s" s="4">
+      <c r="F282" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G282" t="s" s="4">
+      <c r="G282" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H282" t="s" s="4">
+      <c r="H282" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I282" t="s" s="4">
+      <c r="I282" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8337,10 +8385,10 @@
       <c r="I284">
         <f>((C284-C283)^2+(D284- D283)^2)^.5</f>
       </c>
-      <c r="J284" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K284" s="4" t="s">
+      <c r="J284" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K284" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L284" t="n">
@@ -8384,28 +8432,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s" s="4">
+      <c r="A286" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B286" t="s" s="4">
+      <c r="B286" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C286" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D286" t="s" s="4">
+      <c r="C286" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D286" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E286" t="s" s="4">
+      <c r="E286" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F286" t="s" s="4">
+      <c r="F286" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G286" t="s" s="4">
+      <c r="G286" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H286" t="s" s="4">
+      <c r="H286" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8430,28 +8478,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="B288" t="s" s="4">
+      <c r="B288" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C288" t="s" s="4">
+      <c r="C288" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D288" t="s" s="4">
+      <c r="D288" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E288" t="s" s="4">
+      <c r="E288" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F288" t="s" s="4">
+      <c r="F288" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G288" t="s" s="4">
+      <c r="G288" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H288" t="s" s="4">
+      <c r="H288" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I288" t="s" s="4">
+      <c r="I288" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8510,10 +8558,10 @@
       <c r="I290">
         <f>((C290-C289)^2+(D290- D289)^2)^.5</f>
       </c>
-      <c r="J290" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K290" s="4" t="s">
+      <c r="J290" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K290" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L290" t="n">
@@ -8557,28 +8605,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="s" s="4">
+      <c r="A292" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B292" t="s" s="4">
+      <c r="B292" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C292" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D292" t="s" s="4">
+      <c r="C292" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D292" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E292" t="s" s="4">
+      <c r="E292" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F292" t="s" s="4">
+      <c r="F292" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G292" t="s" s="4">
+      <c r="G292" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H292" t="s" s="4">
+      <c r="H292" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8603,28 +8651,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="B294" t="s" s="4">
+      <c r="B294" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C294" t="s" s="4">
+      <c r="C294" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D294" t="s" s="4">
+      <c r="D294" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E294" t="s" s="4">
+      <c r="E294" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F294" t="s" s="4">
+      <c r="F294" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G294" t="s" s="4">
+      <c r="G294" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H294" t="s" s="4">
+      <c r="H294" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I294" t="s" s="4">
+      <c r="I294" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8712,10 +8760,10 @@
       <c r="I297">
         <f>((C297-C296)^2+(D297- D296)^2)^.5</f>
       </c>
-      <c r="J297" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K297" s="4" t="s">
+      <c r="J297" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K297" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L297" t="n">
@@ -8759,28 +8807,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="s" s="4">
+      <c r="A299" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B299" t="s" s="4">
+      <c r="B299" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C299" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D299" t="s" s="4">
+      <c r="C299" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D299" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E299" t="s" s="4">
+      <c r="E299" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F299" t="s" s="4">
+      <c r="F299" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G299" t="s" s="4">
+      <c r="G299" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H299" t="s" s="4">
+      <c r="H299" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8805,28 +8853,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="B301" t="s" s="4">
+      <c r="B301" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C301" t="s" s="4">
+      <c r="C301" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D301" t="s" s="4">
+      <c r="D301" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E301" t="s" s="4">
+      <c r="E301" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F301" t="s" s="4">
+      <c r="F301" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G301" t="s" s="4">
+      <c r="G301" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H301" t="s" s="4">
+      <c r="H301" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I301" t="s" s="4">
+      <c r="I301" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8885,10 +8933,10 @@
       <c r="I303">
         <f>((C303-C302)^2+(D303- D302)^2)^.5</f>
       </c>
-      <c r="J303" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K303" s="4" t="s">
+      <c r="J303" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K303" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L303" t="n">
@@ -8932,28 +8980,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="s" s="4">
+      <c r="A305" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B305" t="s" s="4">
+      <c r="B305" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C305" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D305" t="s" s="4">
+      <c r="C305" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D305" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E305" t="s" s="4">
+      <c r="E305" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F305" t="s" s="4">
+      <c r="F305" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G305" t="s" s="4">
+      <c r="G305" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H305" t="s" s="4">
+      <c r="H305" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8978,28 +9026,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="B307" t="s" s="4">
+      <c r="B307" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C307" t="s" s="4">
+      <c r="C307" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D307" t="s" s="4">
+      <c r="D307" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E307" t="s" s="4">
+      <c r="E307" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F307" t="s" s="4">
+      <c r="F307" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G307" t="s" s="4">
+      <c r="G307" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H307" t="s" s="4">
+      <c r="H307" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I307" t="s" s="4">
+      <c r="I307" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9058,10 +9106,10 @@
       <c r="I309">
         <f>((C309-C308)^2+(D309- D308)^2)^.5</f>
       </c>
-      <c r="J309" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K309" s="4" t="s">
+      <c r="J309" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K309" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L309" t="n">
@@ -9105,28 +9153,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="s" s="4">
+      <c r="A311" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B311" t="s" s="4">
+      <c r="B311" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C311" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D311" t="s" s="4">
+      <c r="C311" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D311" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E311" t="s" s="4">
+      <c r="E311" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F311" t="s" s="4">
+      <c r="F311" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G311" t="s" s="4">
+      <c r="G311" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H311" t="s" s="4">
+      <c r="H311" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9151,28 +9199,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="B313" t="s" s="4">
+      <c r="B313" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C313" t="s" s="4">
+      <c r="C313" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D313" t="s" s="4">
+      <c r="D313" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E313" t="s" s="4">
+      <c r="E313" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F313" t="s" s="4">
+      <c r="F313" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G313" t="s" s="4">
+      <c r="G313" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H313" t="s" s="4">
+      <c r="H313" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I313" t="s" s="4">
+      <c r="I313" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9289,10 +9337,10 @@
       <c r="I317">
         <f>((C317-C316)^2+(D317- D316)^2)^.5</f>
       </c>
-      <c r="J317" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K317" s="4" t="s">
+      <c r="J317" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K317" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L317" t="n">
@@ -9336,28 +9384,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="s" s="4">
+      <c r="A319" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B319" t="s" s="4">
+      <c r="B319" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C319" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D319" t="s" s="4">
+      <c r="C319" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D319" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E319" t="s" s="4">
+      <c r="E319" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F319" t="s" s="4">
+      <c r="F319" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G319" t="s" s="4">
+      <c r="G319" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H319" t="s" s="4">
+      <c r="H319" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9382,28 +9430,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="B321" t="s" s="4">
+      <c r="B321" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C321" t="s" s="4">
+      <c r="C321" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D321" t="s" s="4">
+      <c r="D321" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E321" t="s" s="4">
+      <c r="E321" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F321" t="s" s="4">
+      <c r="F321" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G321" t="s" s="4">
+      <c r="G321" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H321" t="s" s="4">
+      <c r="H321" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I321" t="s" s="4">
+      <c r="I321" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9462,10 +9510,10 @@
       <c r="I323">
         <f>((C323-C322)^2+(D323- D322)^2)^.5</f>
       </c>
-      <c r="J323" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K323" s="4" t="s">
+      <c r="J323" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K323" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L323" t="n">
@@ -9509,28 +9557,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="s" s="4">
+      <c r="A325" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B325" t="s" s="4">
+      <c r="B325" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C325" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D325" t="s" s="4">
+      <c r="C325" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D325" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E325" t="s" s="4">
+      <c r="E325" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F325" t="s" s="4">
+      <c r="F325" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G325" t="s" s="4">
+      <c r="G325" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H325" t="s" s="4">
+      <c r="H325" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9555,28 +9603,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="B327" t="s" s="4">
+      <c r="B327" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C327" t="s" s="4">
+      <c r="C327" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D327" t="s" s="4">
+      <c r="D327" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E327" t="s" s="4">
+      <c r="E327" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F327" t="s" s="4">
+      <c r="F327" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G327" t="s" s="4">
+      <c r="G327" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H327" t="s" s="4">
+      <c r="H327" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I327" t="s" s="4">
+      <c r="I327" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9635,10 +9683,10 @@
       <c r="I329">
         <f>((C329-C328)^2+(D329- D328)^2)^.5</f>
       </c>
-      <c r="J329" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K329" s="4" t="s">
+      <c r="J329" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K329" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L329" t="n">
@@ -9682,28 +9730,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="s" s="4">
+      <c r="A331" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B331" t="s" s="4">
+      <c r="B331" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C331" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D331" t="s" s="4">
+      <c r="C331" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D331" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E331" t="s" s="4">
+      <c r="E331" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F331" t="s" s="4">
+      <c r="F331" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G331" t="s" s="4">
+      <c r="G331" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H331" t="s" s="4">
+      <c r="H331" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9728,28 +9776,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="B333" t="s" s="4">
+      <c r="B333" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C333" t="s" s="4">
+      <c r="C333" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D333" t="s" s="4">
+      <c r="D333" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E333" t="s" s="4">
+      <c r="E333" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F333" t="s" s="4">
+      <c r="F333" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G333" t="s" s="4">
+      <c r="G333" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H333" t="s" s="4">
+      <c r="H333" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I333" t="s" s="4">
+      <c r="I333" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9837,10 +9885,10 @@
       <c r="I336">
         <f>((C336-C335)^2+(D336- D335)^2)^.5</f>
       </c>
-      <c r="J336" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K336" s="4" t="s">
+      <c r="J336" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K336" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L336" t="n">
@@ -9884,28 +9932,28 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" t="s" s="4">
+      <c r="A338" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B338" t="s" s="4">
+      <c r="B338" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C338" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D338" t="s" s="4">
+      <c r="C338" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D338" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E338" t="s" s="4">
+      <c r="E338" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F338" t="s" s="4">
+      <c r="F338" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G338" t="s" s="4">
+      <c r="G338" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H338" t="s" s="4">
+      <c r="H338" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9930,28 +9978,28 @@
       </c>
     </row>
     <row r="340">
-      <c r="B340" t="s" s="4">
+      <c r="B340" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C340" t="s" s="4">
+      <c r="C340" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D340" t="s" s="4">
+      <c r="D340" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E340" t="s" s="4">
+      <c r="E340" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F340" t="s" s="4">
+      <c r="F340" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G340" t="s" s="4">
+      <c r="G340" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H340" t="s" s="4">
+      <c r="H340" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I340" t="s" s="4">
+      <c r="I340" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10010,10 +10058,10 @@
       <c r="I342">
         <f>((C342-C341)^2+(D342- D341)^2)^.5</f>
       </c>
-      <c r="J342" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K342" s="4" t="s">
+      <c r="J342" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K342" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L342" t="n">
@@ -10057,28 +10105,28 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="s" s="4">
+      <c r="A344" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B344" t="s" s="4">
+      <c r="B344" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C344" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D344" t="s" s="4">
+      <c r="C344" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D344" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E344" t="s" s="4">
+      <c r="E344" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F344" t="s" s="4">
+      <c r="F344" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G344" t="s" s="4">
+      <c r="G344" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H344" t="s" s="4">
+      <c r="H344" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10103,28 +10151,28 @@
       </c>
     </row>
     <row r="346">
-      <c r="B346" t="s" s="4">
+      <c r="B346" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C346" t="s" s="4">
+      <c r="C346" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D346" t="s" s="4">
+      <c r="D346" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E346" t="s" s="4">
+      <c r="E346" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F346" t="s" s="4">
+      <c r="F346" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G346" t="s" s="4">
+      <c r="G346" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H346" t="s" s="4">
+      <c r="H346" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I346" t="s" s="4">
+      <c r="I346" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10183,10 +10231,10 @@
       <c r="I348">
         <f>((C348-C347)^2+(D348- D347)^2)^.5</f>
       </c>
-      <c r="J348" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K348" s="4" t="s">
+      <c r="J348" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K348" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L348" t="n">
@@ -10230,28 +10278,28 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" t="s" s="4">
+      <c r="A350" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B350" t="s" s="4">
+      <c r="B350" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C350" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D350" t="s" s="4">
+      <c r="C350" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D350" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E350" t="s" s="4">
+      <c r="E350" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F350" t="s" s="4">
+      <c r="F350" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G350" t="s" s="4">
+      <c r="G350" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H350" t="s" s="4">
+      <c r="H350" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10276,28 +10324,28 @@
       </c>
     </row>
     <row r="352">
-      <c r="B352" t="s" s="4">
+      <c r="B352" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C352" t="s" s="4">
+      <c r="C352" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D352" t="s" s="4">
+      <c r="D352" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E352" t="s" s="4">
+      <c r="E352" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F352" t="s" s="4">
+      <c r="F352" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G352" t="s" s="4">
+      <c r="G352" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H352" t="s" s="4">
+      <c r="H352" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I352" t="s" s="4">
+      <c r="I352" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10356,10 +10404,10 @@
       <c r="I354">
         <f>((C354-C353)^2+(D354- D353)^2)^.5</f>
       </c>
-      <c r="J354" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K354" s="4" t="s">
+      <c r="J354" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K354" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L354" t="n">
@@ -10403,28 +10451,28 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" t="s" s="4">
+      <c r="A356" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B356" t="s" s="4">
+      <c r="B356" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C356" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D356" t="s" s="4">
+      <c r="C356" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D356" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E356" t="s" s="4">
+      <c r="E356" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F356" t="s" s="4">
+      <c r="F356" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G356" t="s" s="4">
+      <c r="G356" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H356" t="s" s="4">
+      <c r="H356" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10449,28 +10497,28 @@
       </c>
     </row>
     <row r="358">
-      <c r="B358" t="s" s="4">
+      <c r="B358" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C358" t="s" s="4">
+      <c r="C358" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D358" t="s" s="4">
+      <c r="D358" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E358" t="s" s="4">
+      <c r="E358" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F358" t="s" s="4">
+      <c r="F358" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G358" t="s" s="4">
+      <c r="G358" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H358" t="s" s="4">
+      <c r="H358" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I358" t="s" s="4">
+      <c r="I358" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10529,10 +10577,10 @@
       <c r="I360">
         <f>((C360-C359)^2+(D360- D359)^2)^.5</f>
       </c>
-      <c r="J360" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K360" s="4" t="s">
+      <c r="J360" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K360" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L360" t="n">
@@ -10576,28 +10624,28 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="s" s="4">
+      <c r="A362" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B362" t="s" s="4">
+      <c r="B362" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C362" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D362" t="s" s="4">
+      <c r="C362" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D362" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E362" t="s" s="4">
+      <c r="E362" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F362" t="s" s="4">
+      <c r="F362" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G362" t="s" s="4">
+      <c r="G362" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H362" t="s" s="4">
+      <c r="H362" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10622,28 +10670,28 @@
       </c>
     </row>
     <row r="364">
-      <c r="B364" t="s" s="4">
+      <c r="B364" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C364" t="s" s="4">
+      <c r="C364" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D364" t="s" s="4">
+      <c r="D364" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E364" t="s" s="4">
+      <c r="E364" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F364" t="s" s="4">
+      <c r="F364" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G364" t="s" s="4">
+      <c r="G364" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H364" t="s" s="4">
+      <c r="H364" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I364" t="s" s="4">
+      <c r="I364" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10702,10 +10750,10 @@
       <c r="I366">
         <f>((C366-C365)^2+(D366- D365)^2)^.5</f>
       </c>
-      <c r="J366" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K366" s="4" t="s">
+      <c r="J366" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K366" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L366" t="n">
@@ -10749,28 +10797,28 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="s" s="4">
+      <c r="A368" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B368" t="s" s="4">
+      <c r="B368" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C368" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D368" t="s" s="4">
+      <c r="C368" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D368" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E368" t="s" s="4">
+      <c r="E368" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F368" t="s" s="4">
+      <c r="F368" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G368" t="s" s="4">
+      <c r="G368" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H368" t="s" s="4">
+      <c r="H368" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10795,28 +10843,28 @@
       </c>
     </row>
     <row r="370">
-      <c r="B370" t="s" s="4">
+      <c r="B370" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C370" t="s" s="4">
+      <c r="C370" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D370" t="s" s="4">
+      <c r="D370" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E370" t="s" s="4">
+      <c r="E370" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F370" t="s" s="4">
+      <c r="F370" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G370" t="s" s="4">
+      <c r="G370" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H370" t="s" s="4">
+      <c r="H370" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I370" t="s" s="4">
+      <c r="I370" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10875,10 +10923,10 @@
       <c r="I372">
         <f>((C372-C371)^2+(D372- D371)^2)^.5</f>
       </c>
-      <c r="J372" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K372" s="4" t="s">
+      <c r="J372" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K372" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L372" t="n">
@@ -10922,28 +10970,28 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" t="s" s="4">
+      <c r="A374" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B374" t="s" s="4">
+      <c r="B374" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C374" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D374" t="s" s="4">
+      <c r="C374" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D374" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E374" t="s" s="4">
+      <c r="E374" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F374" t="s" s="4">
+      <c r="F374" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G374" t="s" s="4">
+      <c r="G374" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H374" t="s" s="4">
+      <c r="H374" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10968,28 +11016,28 @@
       </c>
     </row>
     <row r="376">
-      <c r="B376" t="s" s="4">
+      <c r="B376" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C376" t="s" s="4">
+      <c r="C376" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D376" t="s" s="4">
+      <c r="D376" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E376" t="s" s="4">
+      <c r="E376" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F376" t="s" s="4">
+      <c r="F376" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G376" t="s" s="4">
+      <c r="G376" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H376" t="s" s="4">
+      <c r="H376" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I376" t="s" s="4">
+      <c r="I376" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11048,10 +11096,10 @@
       <c r="I378">
         <f>((C378-C377)^2+(D378- D377)^2)^.5</f>
       </c>
-      <c r="J378" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K378" s="4" t="s">
+      <c r="J378" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K378" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L378" t="n">
@@ -11095,28 +11143,28 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" t="s" s="4">
+      <c r="A380" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B380" t="s" s="4">
+      <c r="B380" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C380" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D380" t="s" s="4">
+      <c r="C380" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D380" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E380" t="s" s="4">
+      <c r="E380" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F380" t="s" s="4">
+      <c r="F380" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G380" t="s" s="4">
+      <c r="G380" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H380" t="s" s="4">
+      <c r="H380" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11141,28 +11189,28 @@
       </c>
     </row>
     <row r="382">
-      <c r="B382" t="s" s="4">
+      <c r="B382" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C382" t="s" s="4">
+      <c r="C382" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D382" t="s" s="4">
+      <c r="D382" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E382" t="s" s="4">
+      <c r="E382" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F382" t="s" s="4">
+      <c r="F382" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G382" t="s" s="4">
+      <c r="G382" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H382" t="s" s="4">
+      <c r="H382" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I382" t="s" s="4">
+      <c r="I382" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11250,10 +11298,10 @@
       <c r="I385">
         <f>((C385-C384)^2+(D385- D384)^2)^.5</f>
       </c>
-      <c r="J385" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K385" s="4" t="s">
+      <c r="J385" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K385" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L385" t="n">
@@ -11297,28 +11345,28 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" t="s" s="4">
+      <c r="A387" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B387" t="s" s="4">
+      <c r="B387" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C387" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D387" t="s" s="4">
+      <c r="C387" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D387" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E387" t="s" s="4">
+      <c r="E387" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F387" t="s" s="4">
+      <c r="F387" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G387" t="s" s="4">
+      <c r="G387" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H387" t="s" s="4">
+      <c r="H387" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11343,28 +11391,28 @@
       </c>
     </row>
     <row r="389">
-      <c r="B389" t="s" s="4">
+      <c r="B389" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C389" t="s" s="4">
+      <c r="C389" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D389" t="s" s="4">
+      <c r="D389" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E389" t="s" s="4">
+      <c r="E389" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F389" t="s" s="4">
+      <c r="F389" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G389" t="s" s="4">
+      <c r="G389" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H389" t="s" s="4">
+      <c r="H389" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I389" t="s" s="4">
+      <c r="I389" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11423,10 +11471,10 @@
       <c r="I391">
         <f>((C391-C390)^2+(D391- D390)^2)^.5</f>
       </c>
-      <c r="J391" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K391" s="4" t="s">
+      <c r="J391" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K391" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L391" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c107_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c107_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13458" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16638" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="12">
+      <c r="C3" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -392,10 +410,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="12" t="s">
+      <c r="J7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -439,28 +457,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="12">
+      <c r="A9" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="12">
+      <c r="B9" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="12">
+      <c r="C9" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="12">
+      <c r="E9" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="12">
+      <c r="F9" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="12">
+      <c r="G9" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="12">
+      <c r="H9" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -485,28 +503,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="12">
+      <c r="B11" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="12">
+      <c r="C11" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="12">
+      <c r="D11" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="12">
+      <c r="E11" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="12">
+      <c r="F11" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="12">
+      <c r="G11" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="12">
+      <c r="H11" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="12">
+      <c r="I11" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -681,10 +699,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="12" t="s">
+      <c r="J17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -728,28 +746,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="12">
+      <c r="A19" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="12">
+      <c r="B19" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="12">
+      <c r="C19" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="12">
+      <c r="E19" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="12">
+      <c r="F19" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="12">
+      <c r="G19" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="12">
+      <c r="H19" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -774,28 +792,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="12">
+      <c r="B21" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="12">
+      <c r="C21" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="12">
+      <c r="D21" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="12">
+      <c r="E21" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="12">
+      <c r="F21" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="12">
+      <c r="G21" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="12">
+      <c r="H21" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="12">
+      <c r="I21" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -883,10 +901,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="12" t="s">
+      <c r="J24" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -930,28 +948,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="12">
+      <c r="A26" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="12">
+      <c r="B26" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s" s="12">
+      <c r="C26" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="12">
+      <c r="E26" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="12">
+      <c r="F26" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="12">
+      <c r="G26" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="12">
+      <c r="H26" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -976,28 +994,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="12">
+      <c r="B28" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="12">
+      <c r="C28" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="12">
+      <c r="D28" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="12">
+      <c r="E28" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="12">
+      <c r="F28" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="12">
+      <c r="G28" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="12">
+      <c r="H28" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="12">
+      <c r="I28" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1056,10 +1074,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="12" t="s">
+      <c r="J30" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1103,28 +1121,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="12">
+      <c r="A32" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="12">
+      <c r="B32" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="12">
+      <c r="C32" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="12">
+      <c r="E32" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="12">
+      <c r="F32" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="12">
+      <c r="G32" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="12">
+      <c r="H32" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1149,28 +1167,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="12">
+      <c r="B34" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="12">
+      <c r="C34" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="12">
+      <c r="D34" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="12">
+      <c r="E34" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="12">
+      <c r="F34" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="12">
+      <c r="G34" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="12">
+      <c r="H34" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="12">
+      <c r="I34" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1287,10 +1305,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="12" t="s">
+      <c r="J38" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1334,28 +1352,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="12">
+      <c r="A40" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="12">
+      <c r="B40" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="12">
+      <c r="C40" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="12">
+      <c r="E40" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="12">
+      <c r="F40" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="12">
+      <c r="G40" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="12">
+      <c r="H40" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1380,28 +1398,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="12">
+      <c r="B42" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="12">
+      <c r="C42" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="12">
+      <c r="D42" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="12">
+      <c r="E42" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="12">
+      <c r="F42" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="12">
+      <c r="G42" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="12">
+      <c r="H42" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="12">
+      <c r="I42" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1489,10 +1507,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="12" t="s">
+      <c r="J45" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1536,28 +1554,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="12">
+      <c r="A47" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="12">
+      <c r="B47" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s" s="12">
+      <c r="C47" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="12">
+      <c r="E47" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="12">
+      <c r="F47" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="12">
+      <c r="G47" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="12">
+      <c r="H47" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1582,28 +1600,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="12">
+      <c r="B49" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="12">
+      <c r="C49" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="12">
+      <c r="D49" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="12">
+      <c r="E49" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="12">
+      <c r="F49" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="12">
+      <c r="G49" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="12">
+      <c r="H49" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="12">
+      <c r="I49" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1778,10 +1796,10 @@
       <c r="I55">
         <f>((C55-C54)^2+(D55- D54)^2)^.5</f>
       </c>
-      <c r="J55" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K55" s="12" t="s">
+      <c r="J55" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L55" t="n">
@@ -1825,28 +1843,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="12">
+      <c r="A57" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B57" t="s" s="12">
+      <c r="B57" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C57" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D57" t="s" s="12">
+      <c r="C57" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E57" t="s" s="12">
+      <c r="E57" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F57" t="s" s="12">
+      <c r="F57" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G57" t="s" s="12">
+      <c r="G57" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H57" t="s" s="12">
+      <c r="H57" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1871,28 +1889,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="B59" t="s" s="12">
+      <c r="B59" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C59" t="s" s="12">
+      <c r="C59" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D59" t="s" s="12">
+      <c r="D59" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E59" t="s" s="12">
+      <c r="E59" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F59" t="s" s="12">
+      <c r="F59" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G59" t="s" s="12">
+      <c r="G59" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H59" t="s" s="12">
+      <c r="H59" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I59" t="s" s="12">
+      <c r="I59" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2038,10 +2056,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="12" t="s">
+      <c r="J64" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2085,28 +2103,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="12">
+      <c r="A66" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="12">
+      <c r="B66" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="12">
+      <c r="C66" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="12">
+      <c r="E66" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="12">
+      <c r="F66" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="12">
+      <c r="G66" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="12">
+      <c r="H66" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2131,28 +2149,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="12">
+      <c r="B68" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="12">
+      <c r="C68" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="12">
+      <c r="D68" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="12">
+      <c r="E68" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="12">
+      <c r="F68" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="12">
+      <c r="G68" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="12">
+      <c r="H68" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="12">
+      <c r="I68" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2240,10 +2258,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="12" t="s">
+      <c r="J71" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2287,28 +2305,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="12">
+      <c r="A73" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="12">
+      <c r="B73" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="12">
+      <c r="C73" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="12">
+      <c r="E73" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="12">
+      <c r="F73" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="12">
+      <c r="G73" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="12">
+      <c r="H73" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2333,28 +2351,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="12">
+      <c r="B75" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="12">
+      <c r="C75" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="12">
+      <c r="D75" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="12">
+      <c r="E75" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="12">
+      <c r="F75" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="12">
+      <c r="G75" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="12">
+      <c r="H75" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="12">
+      <c r="I75" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2471,10 +2489,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="12" t="s">
+      <c r="J79" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2518,28 +2536,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="12">
+      <c r="A81" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="12">
+      <c r="B81" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="12">
+      <c r="C81" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="12">
+      <c r="E81" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="12">
+      <c r="F81" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="12">
+      <c r="G81" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="12">
+      <c r="H81" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2564,28 +2582,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="12">
+      <c r="B83" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="12">
+      <c r="C83" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="12">
+      <c r="D83" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="12">
+      <c r="E83" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="12">
+      <c r="F83" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="12">
+      <c r="G83" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="12">
+      <c r="H83" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="12">
+      <c r="I83" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2644,10 +2662,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="12" t="s">
+      <c r="J85" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2691,28 +2709,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="12">
+      <c r="A87" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="12">
+      <c r="B87" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="12">
+      <c r="C87" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="12">
+      <c r="E87" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="12">
+      <c r="F87" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="12">
+      <c r="G87" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="12">
+      <c r="H87" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2737,28 +2755,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="12">
+      <c r="B89" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="12">
+      <c r="C89" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="12">
+      <c r="D89" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="12">
+      <c r="E89" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="12">
+      <c r="F89" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="12">
+      <c r="G89" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="12">
+      <c r="H89" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="12">
+      <c r="I89" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2817,10 +2835,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="12" t="s">
+      <c r="J91" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2864,28 +2882,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="12">
+      <c r="A93" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="12">
+      <c r="B93" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s" s="12">
+      <c r="C93" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="12">
+      <c r="E93" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="12">
+      <c r="F93" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="12">
+      <c r="G93" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="12">
+      <c r="H93" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2910,28 +2928,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="12">
+      <c r="B95" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="12">
+      <c r="C95" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="12">
+      <c r="D95" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="12">
+      <c r="E95" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="12">
+      <c r="F95" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="12">
+      <c r="G95" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="12">
+      <c r="H95" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="12">
+      <c r="I95" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3077,10 +3095,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K100" s="12" t="s">
+      <c r="J100" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3124,28 +3142,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="12">
+      <c r="A102" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="12">
+      <c r="B102" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s" s="12">
+      <c r="C102" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="12">
+      <c r="E102" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="12">
+      <c r="F102" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="12">
+      <c r="G102" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="12">
+      <c r="H102" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3170,28 +3188,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="12">
+      <c r="B104" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="12">
+      <c r="C104" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="12">
+      <c r="D104" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="12">
+      <c r="E104" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="12">
+      <c r="F104" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="12">
+      <c r="G104" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="12">
+      <c r="H104" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="12">
+      <c r="I104" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3250,10 +3268,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="12" t="s">
+      <c r="J106" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3297,28 +3315,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="12">
+      <c r="A108" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="12">
+      <c r="B108" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="12">
+      <c r="C108" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="12">
+      <c r="E108" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="12">
+      <c r="F108" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="12">
+      <c r="G108" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="12">
+      <c r="H108" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3343,28 +3361,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="12">
+      <c r="B110" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="12">
+      <c r="C110" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="12">
+      <c r="D110" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="12">
+      <c r="E110" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="12">
+      <c r="F110" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="12">
+      <c r="G110" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="12">
+      <c r="H110" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="12">
+      <c r="I110" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3481,10 +3499,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="12" t="s">
+      <c r="J114" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3528,28 +3546,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="12">
+      <c r="A116" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="12">
+      <c r="B116" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s" s="12">
+      <c r="C116" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="12">
+      <c r="E116" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="12">
+      <c r="F116" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="12">
+      <c r="G116" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="12">
+      <c r="H116" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3574,28 +3592,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="12">
+      <c r="B118" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="12">
+      <c r="C118" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="12">
+      <c r="D118" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="12">
+      <c r="E118" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="12">
+      <c r="F118" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="12">
+      <c r="G118" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="12">
+      <c r="H118" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="12">
+      <c r="I118" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3683,10 +3701,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="12" t="s">
+      <c r="J121" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3730,28 +3748,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="12">
+      <c r="A123" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="12">
+      <c r="B123" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="12">
+      <c r="C123" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="12">
+      <c r="E123" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="12">
+      <c r="F123" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="12">
+      <c r="G123" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="12">
+      <c r="H123" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3776,28 +3794,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="12">
+      <c r="B125" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="12">
+      <c r="C125" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="12">
+      <c r="D125" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="12">
+      <c r="E125" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="12">
+      <c r="F125" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="12">
+      <c r="G125" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="12">
+      <c r="H125" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="12">
+      <c r="I125" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3856,10 +3874,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="12" t="s">
+      <c r="J127" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3903,28 +3921,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="12">
+      <c r="A129" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="12">
+      <c r="B129" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="12">
+      <c r="C129" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="12">
+      <c r="E129" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="12">
+      <c r="F129" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="12">
+      <c r="G129" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="12">
+      <c r="H129" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3949,28 +3967,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="12">
+      <c r="B131" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="12">
+      <c r="C131" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="12">
+      <c r="D131" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="12">
+      <c r="E131" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="12">
+      <c r="F131" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="12">
+      <c r="G131" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="12">
+      <c r="H131" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="12">
+      <c r="I131" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4029,10 +4047,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="12" t="s">
+      <c r="J133" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4076,28 +4094,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="12">
+      <c r="A135" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="12">
+      <c r="B135" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="12">
+      <c r="C135" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="12">
+      <c r="E135" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="12">
+      <c r="F135" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="12">
+      <c r="G135" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="12">
+      <c r="H135" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4122,28 +4140,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="12">
+      <c r="B137" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="12">
+      <c r="C137" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="12">
+      <c r="D137" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="12">
+      <c r="E137" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="12">
+      <c r="F137" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="12">
+      <c r="G137" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="12">
+      <c r="H137" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="12">
+      <c r="I137" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4202,10 +4220,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K139" s="12" t="s">
+      <c r="J139" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K139" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4249,28 +4267,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="12">
+      <c r="A141" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="12">
+      <c r="B141" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D141" t="s" s="12">
+      <c r="C141" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="12">
+      <c r="E141" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="12">
+      <c r="F141" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="12">
+      <c r="G141" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="12">
+      <c r="H141" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4295,28 +4313,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="12">
+      <c r="B143" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="12">
+      <c r="C143" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="12">
+      <c r="D143" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="12">
+      <c r="E143" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="12">
+      <c r="F143" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="12">
+      <c r="G143" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="12">
+      <c r="H143" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="12">
+      <c r="I143" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4375,10 +4393,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K145" s="12" t="s">
+      <c r="J145" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K145" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4422,28 +4440,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="12">
+      <c r="A147" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="12">
+      <c r="B147" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D147" t="s" s="12">
+      <c r="C147" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="12">
+      <c r="E147" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="12">
+      <c r="F147" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="12">
+      <c r="G147" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="12">
+      <c r="H147" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4468,28 +4486,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="12">
+      <c r="B149" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="12">
+      <c r="C149" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="12">
+      <c r="D149" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="12">
+      <c r="E149" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="12">
+      <c r="F149" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="12">
+      <c r="G149" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="12">
+      <c r="H149" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="12">
+      <c r="I149" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4606,10 +4624,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K153" s="12" t="s">
+      <c r="J153" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K153" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4653,28 +4671,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="12">
+      <c r="A155" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="12">
+      <c r="B155" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D155" t="s" s="12">
+      <c r="C155" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="12">
+      <c r="E155" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="12">
+      <c r="F155" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="12">
+      <c r="G155" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="12">
+      <c r="H155" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4699,28 +4717,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="12">
+      <c r="B157" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="12">
+      <c r="C157" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="12">
+      <c r="D157" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="12">
+      <c r="E157" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="12">
+      <c r="F157" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="12">
+      <c r="G157" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="12">
+      <c r="H157" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="12">
+      <c r="I157" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4866,10 +4884,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="12" t="s">
+      <c r="J162" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4913,28 +4931,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="12">
+      <c r="A164" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="12">
+      <c r="B164" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="12">
+      <c r="C164" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="12">
+      <c r="E164" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="12">
+      <c r="F164" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="12">
+      <c r="G164" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="12">
+      <c r="H164" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4959,28 +4977,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="12">
+      <c r="B166" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="12">
+      <c r="C166" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="12">
+      <c r="D166" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="12">
+      <c r="E166" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="12">
+      <c r="F166" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="12">
+      <c r="G166" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="12">
+      <c r="H166" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="12">
+      <c r="I166" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5039,10 +5057,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="12" t="s">
+      <c r="J168" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5086,28 +5104,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="12">
+      <c r="A170" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="12">
+      <c r="B170" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="12">
+      <c r="C170" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="12">
+      <c r="E170" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="12">
+      <c r="F170" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="12">
+      <c r="G170" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="12">
+      <c r="H170" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5132,28 +5150,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="12">
+      <c r="B172" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="12">
+      <c r="C172" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="12">
+      <c r="D172" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="12">
+      <c r="E172" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="12">
+      <c r="F172" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="12">
+      <c r="G172" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="12">
+      <c r="H172" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="12">
+      <c r="I172" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5212,10 +5230,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="12" t="s">
+      <c r="J174" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5259,28 +5277,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="12">
+      <c r="A176" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="12">
+      <c r="B176" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="12">
+      <c r="C176" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="12">
+      <c r="E176" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="12">
+      <c r="F176" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="12">
+      <c r="G176" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="12">
+      <c r="H176" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5305,28 +5323,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="12">
+      <c r="B178" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="12">
+      <c r="C178" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="12">
+      <c r="D178" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="12">
+      <c r="E178" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="12">
+      <c r="F178" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="12">
+      <c r="G178" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="12">
+      <c r="H178" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="12">
+      <c r="I178" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5385,10 +5403,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K180" s="12" t="s">
+      <c r="J180" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K180" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5432,28 +5450,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="12">
+      <c r="A182" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="12">
+      <c r="B182" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D182" t="s" s="12">
+      <c r="C182" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="12">
+      <c r="E182" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="12">
+      <c r="F182" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="12">
+      <c r="G182" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="12">
+      <c r="H182" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5478,28 +5496,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="12">
+      <c r="B184" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="12">
+      <c r="C184" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="12">
+      <c r="D184" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="12">
+      <c r="E184" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="12">
+      <c r="F184" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="12">
+      <c r="G184" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="12">
+      <c r="H184" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="12">
+      <c r="I184" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5674,10 +5692,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="12" t="s">
+      <c r="J190" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5721,28 +5739,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="12">
+      <c r="A192" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="12">
+      <c r="B192" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="12">
+      <c r="C192" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="12">
+      <c r="E192" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="12">
+      <c r="F192" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="12">
+      <c r="G192" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="12">
+      <c r="H192" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5767,28 +5785,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="12">
+      <c r="B194" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="12">
+      <c r="C194" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="12">
+      <c r="D194" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="12">
+      <c r="E194" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="12">
+      <c r="F194" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="12">
+      <c r="G194" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="12">
+      <c r="H194" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="12">
+      <c r="I194" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5876,10 +5894,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="12" t="s">
+      <c r="J197" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5923,28 +5941,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="12">
+      <c r="A199" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="12">
+      <c r="B199" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="12">
+      <c r="C199" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="12">
+      <c r="E199" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="12">
+      <c r="F199" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="12">
+      <c r="G199" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="12">
+      <c r="H199" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5969,28 +5987,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="12">
+      <c r="B201" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="12">
+      <c r="C201" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="12">
+      <c r="D201" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="12">
+      <c r="E201" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="12">
+      <c r="F201" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="12">
+      <c r="G201" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="12">
+      <c r="H201" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="12">
+      <c r="I201" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6049,10 +6067,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="12" t="s">
+      <c r="J203" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6096,28 +6114,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="12">
+      <c r="A205" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="12">
+      <c r="B205" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="12">
+      <c r="C205" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="12">
+      <c r="E205" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="12">
+      <c r="F205" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="12">
+      <c r="G205" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="12">
+      <c r="H205" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6142,28 +6160,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="12">
+      <c r="B207" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="12">
+      <c r="C207" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="12">
+      <c r="D207" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="12">
+      <c r="E207" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="12">
+      <c r="F207" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="12">
+      <c r="G207" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="12">
+      <c r="H207" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="12">
+      <c r="I207" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6280,10 +6298,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="12" t="s">
+      <c r="J211" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
@@ -6327,28 +6345,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s" s="12">
+      <c r="A213" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B213" t="s" s="12">
+      <c r="B213" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C213" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D213" t="s" s="12">
+      <c r="C213" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E213" t="s" s="12">
+      <c r="E213" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F213" t="s" s="12">
+      <c r="F213" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G213" t="s" s="12">
+      <c r="G213" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H213" t="s" s="12">
+      <c r="H213" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6373,28 +6391,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="B215" t="s" s="12">
+      <c r="B215" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C215" t="s" s="12">
+      <c r="C215" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D215" t="s" s="12">
+      <c r="D215" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E215" t="s" s="12">
+      <c r="E215" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F215" t="s" s="12">
+      <c r="F215" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G215" t="s" s="12">
+      <c r="G215" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H215" t="s" s="12">
+      <c r="H215" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I215" t="s" s="12">
+      <c r="I215" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6453,10 +6471,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="12" t="s">
+      <c r="J217" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6500,28 +6518,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="12">
+      <c r="A219" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="12">
+      <c r="B219" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="12">
+      <c r="C219" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="12">
+      <c r="E219" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="12">
+      <c r="F219" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="12">
+      <c r="G219" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="12">
+      <c r="H219" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6546,28 +6564,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="12">
+      <c r="B221" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="12">
+      <c r="C221" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="12">
+      <c r="D221" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="12">
+      <c r="E221" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="12">
+      <c r="F221" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="12">
+      <c r="G221" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="12">
+      <c r="H221" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="12">
+      <c r="I221" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6626,10 +6644,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="12" t="s">
+      <c r="J223" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6673,28 +6691,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="12">
+      <c r="A225" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="12">
+      <c r="B225" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="12">
+      <c r="C225" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="12">
+      <c r="E225" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="12">
+      <c r="F225" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="12">
+      <c r="G225" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="12">
+      <c r="H225" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6719,28 +6737,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="12">
+      <c r="B227" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="12">
+      <c r="C227" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="12">
+      <c r="D227" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="12">
+      <c r="E227" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="12">
+      <c r="F227" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="12">
+      <c r="G227" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="12">
+      <c r="H227" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="12">
+      <c r="I227" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6799,10 +6817,10 @@
       <c r="I229">
         <f>((C229-C228)^2+(D229- D228)^2)^.5</f>
       </c>
-      <c r="J229" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K229" s="12" t="s">
+      <c r="J229" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L229" t="n">
@@ -6846,28 +6864,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="12">
+      <c r="A231" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B231" t="s" s="12">
+      <c r="B231" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C231" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D231" t="s" s="12">
+      <c r="C231" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E231" t="s" s="12">
+      <c r="E231" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F231" t="s" s="12">
+      <c r="F231" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G231" t="s" s="12">
+      <c r="G231" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H231" t="s" s="12">
+      <c r="H231" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6892,28 +6910,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="B233" t="s" s="12">
+      <c r="B233" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C233" t="s" s="12">
+      <c r="C233" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D233" t="s" s="12">
+      <c r="D233" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E233" t="s" s="12">
+      <c r="E233" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F233" t="s" s="12">
+      <c r="F233" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G233" t="s" s="12">
+      <c r="G233" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H233" t="s" s="12">
+      <c r="H233" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I233" t="s" s="12">
+      <c r="I233" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6972,10 +6990,10 @@
       <c r="I235">
         <f>((C235-C234)^2+(D235- D234)^2)^.5</f>
       </c>
-      <c r="J235" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K235" s="12" t="s">
+      <c r="J235" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K235" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L235" t="n">
@@ -7019,28 +7037,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s" s="12">
+      <c r="A237" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B237" t="s" s="12">
+      <c r="B237" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C237" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D237" t="s" s="12">
+      <c r="C237" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E237" t="s" s="12">
+      <c r="E237" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F237" t="s" s="12">
+      <c r="F237" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G237" t="s" s="12">
+      <c r="G237" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H237" t="s" s="12">
+      <c r="H237" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7065,28 +7083,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="B239" t="s" s="12">
+      <c r="B239" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C239" t="s" s="12">
+      <c r="C239" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D239" t="s" s="12">
+      <c r="D239" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E239" t="s" s="12">
+      <c r="E239" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F239" t="s" s="12">
+      <c r="F239" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G239" t="s" s="12">
+      <c r="G239" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H239" t="s" s="12">
+      <c r="H239" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I239" t="s" s="12">
+      <c r="I239" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7145,10 +7163,10 @@
       <c r="I241">
         <f>((C241-C240)^2+(D241- D240)^2)^.5</f>
       </c>
-      <c r="J241" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K241" s="12" t="s">
+      <c r="J241" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K241" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L241" t="n">
@@ -7192,28 +7210,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="s" s="12">
+      <c r="A243" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B243" t="s" s="12">
+      <c r="B243" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C243" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D243" t="s" s="12">
+      <c r="C243" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D243" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E243" t="s" s="12">
+      <c r="E243" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F243" t="s" s="12">
+      <c r="F243" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G243" t="s" s="12">
+      <c r="G243" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H243" t="s" s="12">
+      <c r="H243" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7238,28 +7256,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="B245" t="s" s="12">
+      <c r="B245" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C245" t="s" s="12">
+      <c r="C245" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D245" t="s" s="12">
+      <c r="D245" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E245" t="s" s="12">
+      <c r="E245" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F245" t="s" s="12">
+      <c r="F245" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G245" t="s" s="12">
+      <c r="G245" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H245" t="s" s="12">
+      <c r="H245" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I245" t="s" s="12">
+      <c r="I245" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7318,10 +7336,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="12" t="s">
+      <c r="J247" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7365,28 +7383,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="12">
+      <c r="A249" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="12">
+      <c r="B249" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="12">
+      <c r="C249" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="12">
+      <c r="E249" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="12">
+      <c r="F249" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="12">
+      <c r="G249" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="12">
+      <c r="H249" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7411,28 +7429,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="12">
+      <c r="B251" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="12">
+      <c r="C251" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="12">
+      <c r="D251" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="12">
+      <c r="E251" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="12">
+      <c r="F251" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="12">
+      <c r="G251" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="12">
+      <c r="H251" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="12">
+      <c r="I251" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7491,10 +7509,10 @@
       <c r="I253">
         <f>((C253-C252)^2+(D253- D252)^2)^.5</f>
       </c>
-      <c r="J253" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K253" s="12" t="s">
+      <c r="J253" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K253" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L253" t="n">
@@ -7538,28 +7556,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="s" s="12">
+      <c r="A255" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B255" t="s" s="12">
+      <c r="B255" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C255" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D255" t="s" s="12">
+      <c r="C255" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E255" t="s" s="12">
+      <c r="E255" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F255" t="s" s="12">
+      <c r="F255" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G255" t="s" s="12">
+      <c r="G255" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H255" t="s" s="12">
+      <c r="H255" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7584,28 +7602,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="B257" t="s" s="12">
+      <c r="B257" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C257" t="s" s="12">
+      <c r="C257" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D257" t="s" s="12">
+      <c r="D257" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E257" t="s" s="12">
+      <c r="E257" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F257" t="s" s="12">
+      <c r="F257" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G257" t="s" s="12">
+      <c r="G257" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H257" t="s" s="12">
+      <c r="H257" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I257" t="s" s="12">
+      <c r="I257" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7693,10 +7711,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="12" t="s">
+      <c r="J260" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7740,28 +7758,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="12">
+      <c r="A262" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="12">
+      <c r="B262" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="12">
+      <c r="C262" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="12">
+      <c r="E262" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="12">
+      <c r="F262" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="12">
+      <c r="G262" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="12">
+      <c r="H262" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7786,28 +7804,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="12">
+      <c r="B264" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="12">
+      <c r="C264" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="12">
+      <c r="D264" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="12">
+      <c r="E264" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="12">
+      <c r="F264" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="12">
+      <c r="G264" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="12">
+      <c r="H264" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="12">
+      <c r="I264" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7866,10 +7884,10 @@
       <c r="I266">
         <f>((C266-C265)^2+(D266- D265)^2)^.5</f>
       </c>
-      <c r="J266" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K266" s="12" t="s">
+      <c r="J266" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K266" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L266" t="n">
@@ -7913,28 +7931,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="s" s="12">
+      <c r="A268" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B268" t="s" s="12">
+      <c r="B268" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C268" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D268" t="s" s="12">
+      <c r="C268" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D268" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E268" t="s" s="12">
+      <c r="E268" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F268" t="s" s="12">
+      <c r="F268" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G268" t="s" s="12">
+      <c r="G268" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H268" t="s" s="12">
+      <c r="H268" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7959,28 +7977,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="B270" t="s" s="12">
+      <c r="B270" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C270" t="s" s="12">
+      <c r="C270" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D270" t="s" s="12">
+      <c r="D270" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E270" t="s" s="12">
+      <c r="E270" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F270" t="s" s="12">
+      <c r="F270" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G270" t="s" s="12">
+      <c r="G270" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H270" t="s" s="12">
+      <c r="H270" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I270" t="s" s="12">
+      <c r="I270" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8039,10 +8057,10 @@
       <c r="I272">
         <f>((C272-C271)^2+(D272- D271)^2)^.5</f>
       </c>
-      <c r="J272" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K272" s="12" t="s">
+      <c r="J272" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K272" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L272" t="n">
@@ -8086,28 +8104,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s" s="12">
+      <c r="A274" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B274" t="s" s="12">
+      <c r="B274" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C274" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D274" t="s" s="12">
+      <c r="C274" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E274" t="s" s="12">
+      <c r="E274" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F274" t="s" s="12">
+      <c r="F274" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G274" t="s" s="12">
+      <c r="G274" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H274" t="s" s="12">
+      <c r="H274" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8132,28 +8150,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="B276" t="s" s="12">
+      <c r="B276" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C276" t="s" s="12">
+      <c r="C276" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D276" t="s" s="12">
+      <c r="D276" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E276" t="s" s="12">
+      <c r="E276" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F276" t="s" s="12">
+      <c r="F276" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G276" t="s" s="12">
+      <c r="G276" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H276" t="s" s="12">
+      <c r="H276" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I276" t="s" s="12">
+      <c r="I276" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8212,10 +8230,10 @@
       <c r="I278">
         <f>((C278-C277)^2+(D278- D277)^2)^.5</f>
       </c>
-      <c r="J278" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K278" s="12" t="s">
+      <c r="J278" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K278" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L278" t="n">
@@ -8259,28 +8277,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="s" s="12">
+      <c r="A280" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B280" t="s" s="12">
+      <c r="B280" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C280" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D280" t="s" s="12">
+      <c r="C280" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D280" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E280" t="s" s="12">
+      <c r="E280" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F280" t="s" s="12">
+      <c r="F280" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G280" t="s" s="12">
+      <c r="G280" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H280" t="s" s="12">
+      <c r="H280" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8305,28 +8323,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="B282" t="s" s="12">
+      <c r="B282" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C282" t="s" s="12">
+      <c r="C282" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D282" t="s" s="12">
+      <c r="D282" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E282" t="s" s="12">
+      <c r="E282" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F282" t="s" s="12">
+      <c r="F282" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G282" t="s" s="12">
+      <c r="G282" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H282" t="s" s="12">
+      <c r="H282" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I282" t="s" s="12">
+      <c r="I282" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8385,10 +8403,10 @@
       <c r="I284">
         <f>((C284-C283)^2+(D284- D283)^2)^.5</f>
       </c>
-      <c r="J284" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K284" s="12" t="s">
+      <c r="J284" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K284" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L284" t="n">
@@ -8432,28 +8450,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s" s="12">
+      <c r="A286" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B286" t="s" s="12">
+      <c r="B286" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C286" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D286" t="s" s="12">
+      <c r="C286" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D286" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E286" t="s" s="12">
+      <c r="E286" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F286" t="s" s="12">
+      <c r="F286" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G286" t="s" s="12">
+      <c r="G286" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H286" t="s" s="12">
+      <c r="H286" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8478,28 +8496,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="B288" t="s" s="12">
+      <c r="B288" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C288" t="s" s="12">
+      <c r="C288" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D288" t="s" s="12">
+      <c r="D288" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E288" t="s" s="12">
+      <c r="E288" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F288" t="s" s="12">
+      <c r="F288" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G288" t="s" s="12">
+      <c r="G288" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H288" t="s" s="12">
+      <c r="H288" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I288" t="s" s="12">
+      <c r="I288" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8558,10 +8576,10 @@
       <c r="I290">
         <f>((C290-C289)^2+(D290- D289)^2)^.5</f>
       </c>
-      <c r="J290" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K290" s="12" t="s">
+      <c r="J290" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K290" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L290" t="n">
@@ -8605,28 +8623,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="s" s="12">
+      <c r="A292" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B292" t="s" s="12">
+      <c r="B292" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C292" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D292" t="s" s="12">
+      <c r="C292" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D292" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E292" t="s" s="12">
+      <c r="E292" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F292" t="s" s="12">
+      <c r="F292" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G292" t="s" s="12">
+      <c r="G292" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H292" t="s" s="12">
+      <c r="H292" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8651,28 +8669,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="B294" t="s" s="12">
+      <c r="B294" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C294" t="s" s="12">
+      <c r="C294" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D294" t="s" s="12">
+      <c r="D294" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E294" t="s" s="12">
+      <c r="E294" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F294" t="s" s="12">
+      <c r="F294" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G294" t="s" s="12">
+      <c r="G294" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H294" t="s" s="12">
+      <c r="H294" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I294" t="s" s="12">
+      <c r="I294" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8760,10 +8778,10 @@
       <c r="I297">
         <f>((C297-C296)^2+(D297- D296)^2)^.5</f>
       </c>
-      <c r="J297" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K297" s="12" t="s">
+      <c r="J297" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K297" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L297" t="n">
@@ -8807,28 +8825,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="s" s="12">
+      <c r="A299" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B299" t="s" s="12">
+      <c r="B299" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C299" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D299" t="s" s="12">
+      <c r="C299" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D299" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E299" t="s" s="12">
+      <c r="E299" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F299" t="s" s="12">
+      <c r="F299" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G299" t="s" s="12">
+      <c r="G299" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H299" t="s" s="12">
+      <c r="H299" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8853,28 +8871,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="B301" t="s" s="12">
+      <c r="B301" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C301" t="s" s="12">
+      <c r="C301" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D301" t="s" s="12">
+      <c r="D301" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E301" t="s" s="12">
+      <c r="E301" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F301" t="s" s="12">
+      <c r="F301" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G301" t="s" s="12">
+      <c r="G301" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H301" t="s" s="12">
+      <c r="H301" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I301" t="s" s="12">
+      <c r="I301" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8933,10 +8951,10 @@
       <c r="I303">
         <f>((C303-C302)^2+(D303- D302)^2)^.5</f>
       </c>
-      <c r="J303" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K303" s="12" t="s">
+      <c r="J303" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K303" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L303" t="n">
@@ -8980,28 +8998,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="s" s="12">
+      <c r="A305" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B305" t="s" s="12">
+      <c r="B305" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C305" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D305" t="s" s="12">
+      <c r="C305" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D305" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E305" t="s" s="12">
+      <c r="E305" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F305" t="s" s="12">
+      <c r="F305" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G305" t="s" s="12">
+      <c r="G305" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H305" t="s" s="12">
+      <c r="H305" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9026,28 +9044,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="B307" t="s" s="12">
+      <c r="B307" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C307" t="s" s="12">
+      <c r="C307" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D307" t="s" s="12">
+      <c r="D307" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E307" t="s" s="12">
+      <c r="E307" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F307" t="s" s="12">
+      <c r="F307" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G307" t="s" s="12">
+      <c r="G307" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H307" t="s" s="12">
+      <c r="H307" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I307" t="s" s="12">
+      <c r="I307" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9106,10 +9124,10 @@
       <c r="I309">
         <f>((C309-C308)^2+(D309- D308)^2)^.5</f>
       </c>
-      <c r="J309" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K309" s="12" t="s">
+      <c r="J309" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K309" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L309" t="n">
@@ -9153,28 +9171,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="s" s="12">
+      <c r="A311" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B311" t="s" s="12">
+      <c r="B311" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C311" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D311" t="s" s="12">
+      <c r="C311" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D311" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E311" t="s" s="12">
+      <c r="E311" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F311" t="s" s="12">
+      <c r="F311" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G311" t="s" s="12">
+      <c r="G311" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H311" t="s" s="12">
+      <c r="H311" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9199,28 +9217,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="B313" t="s" s="12">
+      <c r="B313" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C313" t="s" s="12">
+      <c r="C313" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D313" t="s" s="12">
+      <c r="D313" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E313" t="s" s="12">
+      <c r="E313" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F313" t="s" s="12">
+      <c r="F313" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G313" t="s" s="12">
+      <c r="G313" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H313" t="s" s="12">
+      <c r="H313" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I313" t="s" s="12">
+      <c r="I313" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9337,10 +9355,10 @@
       <c r="I317">
         <f>((C317-C316)^2+(D317- D316)^2)^.5</f>
       </c>
-      <c r="J317" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K317" s="12" t="s">
+      <c r="J317" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K317" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L317" t="n">
@@ -9384,28 +9402,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="s" s="12">
+      <c r="A319" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B319" t="s" s="12">
+      <c r="B319" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C319" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D319" t="s" s="12">
+      <c r="C319" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D319" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E319" t="s" s="12">
+      <c r="E319" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F319" t="s" s="12">
+      <c r="F319" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G319" t="s" s="12">
+      <c r="G319" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H319" t="s" s="12">
+      <c r="H319" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9430,28 +9448,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="B321" t="s" s="12">
+      <c r="B321" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C321" t="s" s="12">
+      <c r="C321" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D321" t="s" s="12">
+      <c r="D321" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E321" t="s" s="12">
+      <c r="E321" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F321" t="s" s="12">
+      <c r="F321" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G321" t="s" s="12">
+      <c r="G321" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H321" t="s" s="12">
+      <c r="H321" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I321" t="s" s="12">
+      <c r="I321" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9510,10 +9528,10 @@
       <c r="I323">
         <f>((C323-C322)^2+(D323- D322)^2)^.5</f>
       </c>
-      <c r="J323" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K323" s="12" t="s">
+      <c r="J323" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K323" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L323" t="n">
@@ -9557,28 +9575,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="s" s="12">
+      <c r="A325" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B325" t="s" s="12">
+      <c r="B325" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C325" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D325" t="s" s="12">
+      <c r="C325" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D325" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E325" t="s" s="12">
+      <c r="E325" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F325" t="s" s="12">
+      <c r="F325" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G325" t="s" s="12">
+      <c r="G325" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H325" t="s" s="12">
+      <c r="H325" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9603,28 +9621,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="B327" t="s" s="12">
+      <c r="B327" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C327" t="s" s="12">
+      <c r="C327" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D327" t="s" s="12">
+      <c r="D327" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E327" t="s" s="12">
+      <c r="E327" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F327" t="s" s="12">
+      <c r="F327" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G327" t="s" s="12">
+      <c r="G327" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H327" t="s" s="12">
+      <c r="H327" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I327" t="s" s="12">
+      <c r="I327" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9683,10 +9701,10 @@
       <c r="I329">
         <f>((C329-C328)^2+(D329- D328)^2)^.5</f>
       </c>
-      <c r="J329" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K329" s="12" t="s">
+      <c r="J329" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K329" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L329" t="n">
@@ -9730,28 +9748,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="s" s="12">
+      <c r="A331" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B331" t="s" s="12">
+      <c r="B331" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C331" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D331" t="s" s="12">
+      <c r="C331" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D331" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E331" t="s" s="12">
+      <c r="E331" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F331" t="s" s="12">
+      <c r="F331" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G331" t="s" s="12">
+      <c r="G331" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H331" t="s" s="12">
+      <c r="H331" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9776,28 +9794,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="B333" t="s" s="12">
+      <c r="B333" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C333" t="s" s="12">
+      <c r="C333" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D333" t="s" s="12">
+      <c r="D333" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E333" t="s" s="12">
+      <c r="E333" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F333" t="s" s="12">
+      <c r="F333" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G333" t="s" s="12">
+      <c r="G333" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H333" t="s" s="12">
+      <c r="H333" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I333" t="s" s="12">
+      <c r="I333" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9885,10 +9903,10 @@
       <c r="I336">
         <f>((C336-C335)^2+(D336- D335)^2)^.5</f>
       </c>
-      <c r="J336" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K336" s="12" t="s">
+      <c r="J336" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K336" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L336" t="n">
@@ -9932,28 +9950,28 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" t="s" s="12">
+      <c r="A338" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B338" t="s" s="12">
+      <c r="B338" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C338" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D338" t="s" s="12">
+      <c r="C338" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D338" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E338" t="s" s="12">
+      <c r="E338" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F338" t="s" s="12">
+      <c r="F338" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G338" t="s" s="12">
+      <c r="G338" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H338" t="s" s="12">
+      <c r="H338" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9978,28 +9996,28 @@
       </c>
     </row>
     <row r="340">
-      <c r="B340" t="s" s="12">
+      <c r="B340" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C340" t="s" s="12">
+      <c r="C340" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D340" t="s" s="12">
+      <c r="D340" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E340" t="s" s="12">
+      <c r="E340" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F340" t="s" s="12">
+      <c r="F340" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G340" t="s" s="12">
+      <c r="G340" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H340" t="s" s="12">
+      <c r="H340" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I340" t="s" s="12">
+      <c r="I340" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10058,10 +10076,10 @@
       <c r="I342">
         <f>((C342-C341)^2+(D342- D341)^2)^.5</f>
       </c>
-      <c r="J342" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K342" s="12" t="s">
+      <c r="J342" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K342" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L342" t="n">
@@ -10105,28 +10123,28 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="s" s="12">
+      <c r="A344" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B344" t="s" s="12">
+      <c r="B344" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C344" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D344" t="s" s="12">
+      <c r="C344" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D344" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E344" t="s" s="12">
+      <c r="E344" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F344" t="s" s="12">
+      <c r="F344" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G344" t="s" s="12">
+      <c r="G344" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H344" t="s" s="12">
+      <c r="H344" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10151,28 +10169,28 @@
       </c>
     </row>
     <row r="346">
-      <c r="B346" t="s" s="12">
+      <c r="B346" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C346" t="s" s="12">
+      <c r="C346" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D346" t="s" s="12">
+      <c r="D346" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E346" t="s" s="12">
+      <c r="E346" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F346" t="s" s="12">
+      <c r="F346" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G346" t="s" s="12">
+      <c r="G346" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H346" t="s" s="12">
+      <c r="H346" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I346" t="s" s="12">
+      <c r="I346" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10231,10 +10249,10 @@
       <c r="I348">
         <f>((C348-C347)^2+(D348- D347)^2)^.5</f>
       </c>
-      <c r="J348" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K348" s="12" t="s">
+      <c r="J348" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K348" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L348" t="n">
@@ -10278,28 +10296,28 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" t="s" s="12">
+      <c r="A350" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B350" t="s" s="12">
+      <c r="B350" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C350" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D350" t="s" s="12">
+      <c r="C350" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D350" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E350" t="s" s="12">
+      <c r="E350" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F350" t="s" s="12">
+      <c r="F350" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G350" t="s" s="12">
+      <c r="G350" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H350" t="s" s="12">
+      <c r="H350" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10324,28 +10342,28 @@
       </c>
     </row>
     <row r="352">
-      <c r="B352" t="s" s="12">
+      <c r="B352" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C352" t="s" s="12">
+      <c r="C352" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D352" t="s" s="12">
+      <c r="D352" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E352" t="s" s="12">
+      <c r="E352" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F352" t="s" s="12">
+      <c r="F352" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G352" t="s" s="12">
+      <c r="G352" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H352" t="s" s="12">
+      <c r="H352" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I352" t="s" s="12">
+      <c r="I352" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10404,10 +10422,10 @@
       <c r="I354">
         <f>((C354-C353)^2+(D354- D353)^2)^.5</f>
       </c>
-      <c r="J354" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K354" s="12" t="s">
+      <c r="J354" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K354" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L354" t="n">
@@ -10451,28 +10469,28 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" t="s" s="12">
+      <c r="A356" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B356" t="s" s="12">
+      <c r="B356" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C356" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D356" t="s" s="12">
+      <c r="C356" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D356" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E356" t="s" s="12">
+      <c r="E356" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F356" t="s" s="12">
+      <c r="F356" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G356" t="s" s="12">
+      <c r="G356" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H356" t="s" s="12">
+      <c r="H356" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10497,28 +10515,28 @@
       </c>
     </row>
     <row r="358">
-      <c r="B358" t="s" s="12">
+      <c r="B358" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C358" t="s" s="12">
+      <c r="C358" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D358" t="s" s="12">
+      <c r="D358" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E358" t="s" s="12">
+      <c r="E358" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F358" t="s" s="12">
+      <c r="F358" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G358" t="s" s="12">
+      <c r="G358" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H358" t="s" s="12">
+      <c r="H358" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I358" t="s" s="12">
+      <c r="I358" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10577,10 +10595,10 @@
       <c r="I360">
         <f>((C360-C359)^2+(D360- D359)^2)^.5</f>
       </c>
-      <c r="J360" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K360" s="12" t="s">
+      <c r="J360" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K360" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L360" t="n">
@@ -10624,28 +10642,28 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="s" s="12">
+      <c r="A362" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B362" t="s" s="12">
+      <c r="B362" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C362" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D362" t="s" s="12">
+      <c r="C362" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D362" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E362" t="s" s="12">
+      <c r="E362" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F362" t="s" s="12">
+      <c r="F362" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G362" t="s" s="12">
+      <c r="G362" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H362" t="s" s="12">
+      <c r="H362" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10670,28 +10688,28 @@
       </c>
     </row>
     <row r="364">
-      <c r="B364" t="s" s="12">
+      <c r="B364" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C364" t="s" s="12">
+      <c r="C364" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D364" t="s" s="12">
+      <c r="D364" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E364" t="s" s="12">
+      <c r="E364" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F364" t="s" s="12">
+      <c r="F364" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G364" t="s" s="12">
+      <c r="G364" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H364" t="s" s="12">
+      <c r="H364" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I364" t="s" s="12">
+      <c r="I364" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10750,10 +10768,10 @@
       <c r="I366">
         <f>((C366-C365)^2+(D366- D365)^2)^.5</f>
       </c>
-      <c r="J366" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K366" s="12" t="s">
+      <c r="J366" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K366" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L366" t="n">
@@ -10797,28 +10815,28 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="s" s="12">
+      <c r="A368" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B368" t="s" s="12">
+      <c r="B368" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C368" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D368" t="s" s="12">
+      <c r="C368" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D368" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E368" t="s" s="12">
+      <c r="E368" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F368" t="s" s="12">
+      <c r="F368" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G368" t="s" s="12">
+      <c r="G368" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H368" t="s" s="12">
+      <c r="H368" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10843,28 +10861,28 @@
       </c>
     </row>
     <row r="370">
-      <c r="B370" t="s" s="12">
+      <c r="B370" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C370" t="s" s="12">
+      <c r="C370" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D370" t="s" s="12">
+      <c r="D370" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E370" t="s" s="12">
+      <c r="E370" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F370" t="s" s="12">
+      <c r="F370" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G370" t="s" s="12">
+      <c r="G370" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H370" t="s" s="12">
+      <c r="H370" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I370" t="s" s="12">
+      <c r="I370" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10923,10 +10941,10 @@
       <c r="I372">
         <f>((C372-C371)^2+(D372- D371)^2)^.5</f>
       </c>
-      <c r="J372" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K372" s="12" t="s">
+      <c r="J372" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K372" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L372" t="n">
@@ -10970,28 +10988,28 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" t="s" s="12">
+      <c r="A374" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B374" t="s" s="12">
+      <c r="B374" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C374" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D374" t="s" s="12">
+      <c r="C374" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D374" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E374" t="s" s="12">
+      <c r="E374" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F374" t="s" s="12">
+      <c r="F374" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G374" t="s" s="12">
+      <c r="G374" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H374" t="s" s="12">
+      <c r="H374" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11016,28 +11034,28 @@
       </c>
     </row>
     <row r="376">
-      <c r="B376" t="s" s="12">
+      <c r="B376" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C376" t="s" s="12">
+      <c r="C376" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D376" t="s" s="12">
+      <c r="D376" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E376" t="s" s="12">
+      <c r="E376" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F376" t="s" s="12">
+      <c r="F376" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G376" t="s" s="12">
+      <c r="G376" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H376" t="s" s="12">
+      <c r="H376" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I376" t="s" s="12">
+      <c r="I376" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11096,10 +11114,10 @@
       <c r="I378">
         <f>((C378-C377)^2+(D378- D377)^2)^.5</f>
       </c>
-      <c r="J378" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K378" s="12" t="s">
+      <c r="J378" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K378" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L378" t="n">
@@ -11143,28 +11161,28 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" t="s" s="12">
+      <c r="A380" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B380" t="s" s="12">
+      <c r="B380" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C380" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D380" t="s" s="12">
+      <c r="C380" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D380" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E380" t="s" s="12">
+      <c r="E380" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F380" t="s" s="12">
+      <c r="F380" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G380" t="s" s="12">
+      <c r="G380" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H380" t="s" s="12">
+      <c r="H380" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11189,28 +11207,28 @@
       </c>
     </row>
     <row r="382">
-      <c r="B382" t="s" s="12">
+      <c r="B382" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C382" t="s" s="12">
+      <c r="C382" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D382" t="s" s="12">
+      <c r="D382" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E382" t="s" s="12">
+      <c r="E382" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F382" t="s" s="12">
+      <c r="F382" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G382" t="s" s="12">
+      <c r="G382" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H382" t="s" s="12">
+      <c r="H382" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I382" t="s" s="12">
+      <c r="I382" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11298,10 +11316,10 @@
       <c r="I385">
         <f>((C385-C384)^2+(D385- D384)^2)^.5</f>
       </c>
-      <c r="J385" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K385" s="12" t="s">
+      <c r="J385" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K385" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L385" t="n">
@@ -11345,28 +11363,28 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" t="s" s="12">
+      <c r="A387" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B387" t="s" s="12">
+      <c r="B387" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C387" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D387" t="s" s="12">
+      <c r="C387" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D387" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E387" t="s" s="12">
+      <c r="E387" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F387" t="s" s="12">
+      <c r="F387" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G387" t="s" s="12">
+      <c r="G387" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H387" t="s" s="12">
+      <c r="H387" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11391,28 +11409,28 @@
       </c>
     </row>
     <row r="389">
-      <c r="B389" t="s" s="12">
+      <c r="B389" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C389" t="s" s="12">
+      <c r="C389" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D389" t="s" s="12">
+      <c r="D389" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E389" t="s" s="12">
+      <c r="E389" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F389" t="s" s="12">
+      <c r="F389" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G389" t="s" s="12">
+      <c r="G389" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H389" t="s" s="12">
+      <c r="H389" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I389" t="s" s="12">
+      <c r="I389" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11471,10 +11489,10 @@
       <c r="I391">
         <f>((C391-C390)^2+(D391- D390)^2)^.5</f>
       </c>
-      <c r="J391" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K391" s="12" t="s">
+      <c r="J391" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K391" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L391" t="n">
